--- a/data/processed/CN.xlsx
+++ b/data/processed/CN.xlsx
@@ -8,22 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/penninoa/Documents/VT/Data/MyData/Soil_Analyses/data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0CB6CA-AA53-E14A-A8D0-5548C064853D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A2B993-2AE8-0E44-B81B-437B820AF812}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7940" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="197">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="197">
   <si>
     <t>CNRatio</t>
   </si>
@@ -406,12 +403,6 @@
     <t>CN_id</t>
   </si>
   <si>
-    <t>Pedon</t>
-  </si>
-  <si>
-    <t>Horizon</t>
-  </si>
-  <si>
     <t>42_2_PFM</t>
   </si>
   <si>
@@ -526,9 +517,6 @@
     <t>E4</t>
   </si>
   <si>
-    <t>42_2_Oa</t>
-  </si>
-  <si>
     <t>86_4_W4.1</t>
   </si>
   <si>
@@ -544,9 +532,6 @@
     <t>42_4_V4.1</t>
   </si>
   <si>
-    <t>Cd2</t>
-  </si>
-  <si>
     <t>42_4_V4.2</t>
   </si>
   <si>
@@ -611,6 +596,21 @@
   </si>
   <si>
     <t>C_pct</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>pedon</t>
+  </si>
+  <si>
+    <t>horizon</t>
+  </si>
+  <si>
+    <t>Cd</t>
   </si>
 </sst>
 </file>
@@ -866,12 +866,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -897,6 +891,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1119,8 +1119,8 @@
   </sheetPr>
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1128,30 +1128,30 @@
     <col min="1" max="16384" width="14.5" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:20" s="50" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A1" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="H1" s="30" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I1" s="30"/>
       <c r="J1" s="30"/>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="2" spans="1:20" ht="15.75" customHeight="1">
       <c r="A2" s="32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="15"/>
@@ -1174,7 +1174,7 @@
         <v>8.4167939999999994</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" s="32"/>
       <c r="J2" s="32"/>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1">
       <c r="A3" s="32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="15"/>
@@ -1206,7 +1206,7 @@
         <v>16.366009999999999</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" s="32"/>
       <c r="J3" s="32"/>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1">
       <c r="A4" s="32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="15"/>
@@ -1238,7 +1238,7 @@
         <v>4.2821480000000003</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I4" s="32"/>
       <c r="J4" s="32"/>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1">
       <c r="A5" s="32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="15"/>
@@ -1270,7 +1270,7 @@
         <v>4.294441</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I5" s="32"/>
       <c r="J5" s="32"/>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="6" spans="1:20" ht="15.75" customHeight="1">
       <c r="A6" s="32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="15"/>
@@ -1302,7 +1302,7 @@
         <v>4.2836129999999999</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I6" s="32"/>
       <c r="J6" s="32"/>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1">
       <c r="A7" s="32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="15"/>
@@ -1334,7 +1334,7 @@
         <v>4.2836129999999999</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1">
       <c r="A8" s="32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="15"/>
@@ -1366,7 +1366,7 @@
         <v>15.75615</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I8" s="32"/>
       <c r="J8" s="32"/>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1">
       <c r="A9" s="32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="15"/>
@@ -1398,7 +1398,7 @@
         <v>37.889989999999997</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I9" s="32"/>
       <c r="J9" s="32"/>
@@ -1414,17 +1414,17 @@
       <c r="T9" s="34"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A10" s="31">
-        <v>1</v>
+      <c r="A10" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>130</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>133</v>
       </c>
       <c r="E10" s="35">
         <v>1.3023039999999999</v>
@@ -1436,24 +1436,24 @@
         <v>20.300039999999999</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I10" s="31"/>
       <c r="J10" s="31"/>
       <c r="K10" s="31"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A11" s="31">
-        <v>2</v>
+      <c r="A11" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E11" s="35">
         <v>0.98538400000000004</v>
@@ -1465,24 +1465,24 @@
         <v>5.5809790000000001</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I11" s="31"/>
       <c r="J11" s="31"/>
       <c r="K11" s="31"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A12" s="31">
-        <v>3</v>
+      <c r="A12" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E12" s="35">
         <v>2.9635000000000002E-2</v>
@@ -1494,24 +1494,24 @@
         <v>21.76427</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I12" s="31"/>
       <c r="J12" s="31"/>
       <c r="K12" s="31"/>
     </row>
     <row r="13" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A13" s="31">
-        <v>4</v>
+      <c r="A13" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E13" s="35">
         <v>1.0011890000000001</v>
@@ -1523,24 +1523,24 @@
         <v>16.879239999999999</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I13" s="31"/>
       <c r="J13" s="31"/>
       <c r="K13" s="31"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A14" s="31">
-        <v>5</v>
+      <c r="A14" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E14" s="35">
         <v>0.28999399999999997</v>
@@ -1552,24 +1552,24 @@
         <v>19.623169999999998</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I14" s="31"/>
       <c r="J14" s="31"/>
       <c r="K14" s="31"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A15" s="31">
-        <v>6</v>
+      <c r="A15" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E15" s="35">
         <v>0.22118299999999999</v>
@@ -1581,24 +1581,24 @@
         <v>20.61129</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I15" s="31"/>
       <c r="J15" s="31"/>
       <c r="K15" s="31"/>
     </row>
     <row r="16" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A16" s="31">
-        <v>7</v>
+      <c r="A16" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="24" t="s">
         <v>134</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>137</v>
       </c>
       <c r="E16" s="35">
         <v>0.23441200000000001</v>
@@ -1610,24 +1610,24 @@
         <v>21.65831</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I16" s="31"/>
       <c r="J16" s="31"/>
       <c r="K16" s="31"/>
     </row>
     <row r="17" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A17" s="31">
-        <v>8</v>
+      <c r="A17" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E17" s="35">
         <v>0.26178000000000001</v>
@@ -1639,24 +1639,24 @@
         <v>23.258859999999999</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I17" s="31"/>
       <c r="J17" s="31"/>
       <c r="K17" s="31"/>
     </row>
     <row r="18" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A18" s="31">
-        <v>9</v>
+      <c r="A18" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E18" s="35">
         <v>0.14739099999999999</v>
@@ -1668,24 +1668,24 @@
         <v>15.98049</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I18" s="31"/>
       <c r="J18" s="31"/>
       <c r="K18" s="31"/>
     </row>
     <row r="19" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A19" s="31">
-        <v>10</v>
+      <c r="A19" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E19" s="35">
         <v>0.39160600000000001</v>
@@ -1697,24 +1697,24 @@
         <v>16.829360000000001</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I19" s="31"/>
       <c r="J19" s="31"/>
       <c r="K19" s="31"/>
     </row>
     <row r="20" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A20" s="31">
-        <v>11</v>
+      <c r="A20" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E20" s="35">
         <v>0.29821199999999998</v>
@@ -1726,24 +1726,24 @@
         <v>18.494489999999999</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
       <c r="K20" s="31"/>
     </row>
     <row r="21" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A21" s="31">
-        <v>12</v>
+      <c r="A21" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E21" s="35">
         <v>0.152143</v>
@@ -1755,24 +1755,24 @@
         <v>20.735939999999999</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I21" s="31"/>
       <c r="J21" s="31"/>
       <c r="K21" s="31"/>
     </row>
     <row r="22" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A22" s="31">
-        <v>13</v>
+      <c r="A22" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E22" s="35">
         <v>0.14929700000000001</v>
@@ -1784,24 +1784,24 @@
         <v>21.02515</v>
       </c>
       <c r="H22" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I22" s="31"/>
       <c r="J22" s="31"/>
       <c r="K22" s="31"/>
     </row>
     <row r="23" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A23" s="31">
-        <v>14</v>
+      <c r="A23" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E23" s="35">
         <v>1.8598049999999999</v>
@@ -1813,24 +1813,24 @@
         <v>16.797509999999999</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I23" s="31"/>
       <c r="J23" s="31"/>
       <c r="K23" s="31"/>
     </row>
     <row r="24" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A24" s="31">
-        <v>15</v>
+      <c r="A24" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E24" s="35">
         <v>0.15348999999999999</v>
@@ -1842,24 +1842,24 @@
         <v>17.747260000000001</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I24" s="31"/>
       <c r="J24" s="31"/>
       <c r="K24" s="31"/>
     </row>
     <row r="25" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A25" s="31">
-        <v>16</v>
+      <c r="A25" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E25" s="35">
         <v>1.096479</v>
@@ -1871,24 +1871,24 @@
         <v>18.376190000000001</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I25" s="31"/>
       <c r="J25" s="31"/>
       <c r="K25" s="31"/>
     </row>
     <row r="26" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A26" s="31">
-        <v>17</v>
+      <c r="A26" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E26" s="35">
         <v>0.40946199999999999</v>
@@ -1900,24 +1900,24 @@
         <v>20.43599</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I26" s="31"/>
       <c r="J26" s="31"/>
       <c r="K26" s="31"/>
     </row>
     <row r="27" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A27" s="31">
-        <v>18</v>
+      <c r="A27" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E27" s="35">
         <v>8.3263000000000004E-2</v>
@@ -1929,24 +1929,24 @@
         <v>19.944220000000001</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I27" s="31"/>
       <c r="J27" s="31"/>
       <c r="K27" s="31"/>
     </row>
     <row r="28" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A28" s="31">
-        <v>19</v>
+      <c r="A28" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E28" s="35">
         <v>0.29094199999999998</v>
@@ -1958,7 +1958,7 @@
         <v>17.985769999999999</v>
       </c>
       <c r="H28" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I28" s="31"/>
       <c r="J28" s="31"/>
@@ -1966,7 +1966,7 @@
     </row>
     <row r="29" spans="1:20" ht="15.75" customHeight="1">
       <c r="A29" s="32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="15"/>
@@ -1981,7 +1981,7 @@
         <v>4.3020050000000003</v>
       </c>
       <c r="H29" s="32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I29" s="32"/>
       <c r="J29" s="32"/>
@@ -1997,17 +1997,17 @@
       <c r="T29" s="34"/>
     </row>
     <row r="30" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A30" s="31">
-        <v>20</v>
+      <c r="A30" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E30" s="35">
         <v>0.202262</v>
@@ -2019,24 +2019,24 @@
         <v>19.740189999999998</v>
       </c>
       <c r="H30" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I30" s="31"/>
       <c r="J30" s="31"/>
       <c r="K30" s="31"/>
     </row>
     <row r="31" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A31" s="36">
-        <v>21</v>
+      <c r="A31" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E31" s="35">
         <v>1.8587370000000001</v>
@@ -2048,24 +2048,24 @@
         <v>16.21574</v>
       </c>
       <c r="H31" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I31" s="36"/>
       <c r="J31" s="36"/>
       <c r="K31" s="36"/>
     </row>
     <row r="32" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A32" s="36">
-        <v>22</v>
+      <c r="A32" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E32" s="35">
         <v>1.2133E-2</v>
@@ -2077,24 +2077,24 @@
         <v>39.382710000000003</v>
       </c>
       <c r="H32" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I32" s="36"/>
       <c r="J32" s="36"/>
       <c r="K32" s="36"/>
     </row>
     <row r="33" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A33" s="36">
-        <v>23</v>
+      <c r="A33" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E33" s="35">
         <v>1.7394559999999999</v>
@@ -2106,24 +2106,24 @@
         <v>14.63969</v>
       </c>
       <c r="H33" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I33" s="36"/>
       <c r="J33" s="36"/>
       <c r="K33" s="36"/>
     </row>
     <row r="34" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A34" s="36">
-        <v>24</v>
+      <c r="A34" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E34" s="35">
         <v>1.0957699999999999</v>
@@ -2135,24 +2135,24 @@
         <v>16.253070000000001</v>
       </c>
       <c r="H34" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I34" s="36"/>
       <c r="J34" s="36"/>
       <c r="K34" s="36"/>
     </row>
     <row r="35" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A35" s="36">
-        <v>25</v>
+      <c r="A35" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E35" s="35">
         <v>0.21438299999999999</v>
@@ -2164,24 +2164,24 @@
         <v>29.29383</v>
       </c>
       <c r="H35" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I35" s="36"/>
       <c r="J35" s="36"/>
       <c r="K35" s="36"/>
     </row>
     <row r="36" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A36" s="36">
-        <v>26</v>
+      <c r="A36" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E36" s="35">
         <v>3.8591E-2</v>
@@ -2193,24 +2193,24 @@
         <v>32.106580000000001</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I36" s="36"/>
       <c r="J36" s="36"/>
       <c r="K36" s="36"/>
     </row>
     <row r="37" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A37" s="36">
-        <v>27</v>
+      <c r="A37" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E37" s="35">
         <v>1.0003709999999999</v>
@@ -2222,24 +2222,24 @@
         <v>24.66357</v>
       </c>
       <c r="H37" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I37" s="36"/>
       <c r="J37" s="36"/>
       <c r="K37" s="36"/>
     </row>
     <row r="38" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A38" s="36">
-        <v>28</v>
+      <c r="A38" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E38" s="35">
         <v>6.0783999999999998E-2</v>
@@ -2251,24 +2251,24 @@
         <v>20.652650000000001</v>
       </c>
       <c r="H38" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I38" s="36"/>
       <c r="J38" s="36"/>
       <c r="K38" s="36"/>
     </row>
     <row r="39" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A39" s="36">
-        <v>29</v>
+      <c r="A39" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E39" s="35">
         <v>0.37709900000000002</v>
@@ -2280,24 +2280,24 @@
         <v>20.969609999999999</v>
       </c>
       <c r="H39" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I39" s="36"/>
       <c r="J39" s="36"/>
       <c r="K39" s="36"/>
     </row>
     <row r="40" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A40" s="36">
-        <v>30</v>
+      <c r="A40" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E40" s="35">
         <v>0.20647399999999999</v>
@@ -2309,24 +2309,24 @@
         <v>29.53162</v>
       </c>
       <c r="H40" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I40" s="36"/>
       <c r="J40" s="36"/>
       <c r="K40" s="36"/>
     </row>
     <row r="41" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A41" s="36">
-        <v>31</v>
+      <c r="A41" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E41" s="35">
         <v>0.185748</v>
@@ -2338,7 +2338,7 @@
         <v>27.554220000000001</v>
       </c>
       <c r="H41" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I41" s="36"/>
       <c r="J41" s="36"/>
@@ -2349,7 +2349,7 @@
         <v>32</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
@@ -2363,7 +2363,7 @@
         <v>20.347079999999998</v>
       </c>
       <c r="H42" s="32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I42" s="32"/>
       <c r="J42" s="32"/>
@@ -2383,7 +2383,7 @@
         <v>33</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
@@ -2397,7 +2397,7 @@
         <v>20.37942</v>
       </c>
       <c r="H43" s="32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I43" s="32"/>
       <c r="J43" s="32"/>
@@ -2417,7 +2417,7 @@
         <v>34</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
@@ -2431,7 +2431,7 @@
         <v>20.67708</v>
       </c>
       <c r="H44" s="32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I44" s="32"/>
       <c r="J44" s="32"/>
@@ -2451,7 +2451,7 @@
         <v>35</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
@@ -2465,7 +2465,7 @@
         <v>20.649560000000001</v>
       </c>
       <c r="H45" s="32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I45" s="32"/>
       <c r="J45" s="32"/>
@@ -2481,17 +2481,17 @@
       <c r="T45" s="34"/>
     </row>
     <row r="46" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A46" s="31">
-        <v>36</v>
+      <c r="A46" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E46" s="35">
         <v>0.60217900000000002</v>
@@ -2503,24 +2503,24 @@
         <v>18.518940000000001</v>
       </c>
       <c r="H46" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I46" s="31"/>
       <c r="J46" s="31"/>
       <c r="K46" s="31"/>
     </row>
     <row r="47" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A47" s="31">
-        <v>37</v>
+      <c r="A47" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E47" s="35">
         <v>0.11844</v>
@@ -2532,24 +2532,24 @@
         <v>15.61361</v>
       </c>
       <c r="H47" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I47" s="31"/>
       <c r="J47" s="31"/>
       <c r="K47" s="31"/>
     </row>
     <row r="48" spans="1:20" ht="13">
-      <c r="A48" s="31">
-        <v>38</v>
+      <c r="A48" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E48" s="35">
         <v>0.46168399999999998</v>
@@ -2561,24 +2561,24 @@
         <v>18.563220000000001</v>
       </c>
       <c r="H48" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I48" s="31"/>
       <c r="J48" s="31"/>
       <c r="K48" s="31"/>
     </row>
     <row r="49" spans="1:20" ht="13">
-      <c r="A49" s="31">
-        <v>39</v>
+      <c r="A49" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E49" s="35">
         <v>0.32405</v>
@@ -2590,7 +2590,7 @@
         <v>20.181069999999998</v>
       </c>
       <c r="H49" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I49" s="31"/>
       <c r="J49" s="31"/>
@@ -2598,7 +2598,7 @@
     </row>
     <row r="50" spans="1:20" ht="13">
       <c r="A50" s="32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="17"/>
@@ -2613,7 +2613,7 @@
         <v>4.3030090000000003</v>
       </c>
       <c r="H50" s="32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I50" s="32"/>
       <c r="J50" s="32"/>
@@ -2629,17 +2629,17 @@
       <c r="T50" s="34"/>
     </row>
     <row r="51" spans="1:20" ht="13">
-      <c r="A51" s="31">
-        <v>40</v>
+      <c r="A51" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E51" s="35">
         <v>0.31304199999999999</v>
@@ -2651,24 +2651,24 @@
         <v>20.89105</v>
       </c>
       <c r="H51" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I51" s="31"/>
       <c r="J51" s="31"/>
       <c r="K51" s="31"/>
     </row>
     <row r="52" spans="1:20" ht="13">
-      <c r="A52" s="31">
-        <v>41</v>
+      <c r="A52" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52" s="24" t="s">
         <v>153</v>
-      </c>
-      <c r="D52" s="24" t="s">
-        <v>156</v>
       </c>
       <c r="E52" s="35">
         <v>0.20927899999999999</v>
@@ -2680,24 +2680,24 @@
         <v>22.375360000000001</v>
       </c>
       <c r="H52" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I52" s="31"/>
       <c r="J52" s="31"/>
       <c r="K52" s="31"/>
     </row>
     <row r="53" spans="1:20" ht="13">
-      <c r="A53" s="31">
-        <v>42</v>
+      <c r="A53" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E53" s="35">
         <v>0.10570499999999999</v>
@@ -2709,24 +2709,24 @@
         <v>23.47533</v>
       </c>
       <c r="H53" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I53" s="31"/>
       <c r="J53" s="31"/>
       <c r="K53" s="31"/>
     </row>
     <row r="54" spans="1:20" ht="13">
-      <c r="A54" s="31">
-        <v>43</v>
+      <c r="A54" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E54" s="35">
         <v>4.7220999999999999E-2</v>
@@ -2738,24 +2738,24 @@
         <v>24.446919999999999</v>
       </c>
       <c r="H54" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I54" s="31"/>
       <c r="J54" s="31"/>
       <c r="K54" s="31"/>
     </row>
     <row r="55" spans="1:20" ht="13">
-      <c r="A55" s="31">
-        <v>44</v>
+      <c r="A55" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E55" s="35">
         <v>9.6839999999999999E-3</v>
@@ -2767,24 +2767,24 @@
         <v>27.553809999999999</v>
       </c>
       <c r="H55" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I55" s="31"/>
       <c r="J55" s="31"/>
       <c r="K55" s="31"/>
     </row>
     <row r="56" spans="1:20" ht="13">
-      <c r="A56" s="36">
-        <v>45</v>
+      <c r="A56" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E56" s="35">
         <v>9.1739999999999999E-3</v>
@@ -2796,24 +2796,24 @@
         <v>14.36852</v>
       </c>
       <c r="H56" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I56" s="36"/>
       <c r="J56" s="36"/>
       <c r="K56" s="36"/>
     </row>
     <row r="57" spans="1:20" ht="13">
-      <c r="A57" s="36">
-        <v>46</v>
+      <c r="A57" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E57" s="35">
         <v>3.1909999999999998E-3</v>
@@ -2825,24 +2825,24 @@
         <v>16.1508</v>
       </c>
       <c r="H57" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I57" s="36"/>
       <c r="J57" s="36"/>
       <c r="K57" s="36"/>
     </row>
     <row r="58" spans="1:20" ht="14">
-      <c r="A58" s="36">
-        <v>47</v>
+      <c r="A58" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E58" s="35">
         <v>1.2753779999999999</v>
@@ -2854,24 +2854,24 @@
         <v>19.652259999999998</v>
       </c>
       <c r="H58" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I58" s="36"/>
       <c r="J58" s="36"/>
       <c r="K58" s="36"/>
     </row>
     <row r="59" spans="1:20" ht="14">
-      <c r="A59" s="36">
-        <v>48</v>
+      <c r="A59" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C59" s="27" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E59" s="35">
         <v>9.6032000000000006E-2</v>
@@ -2883,24 +2883,24 @@
         <v>19.856349999999999</v>
       </c>
       <c r="H59" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I59" s="36"/>
       <c r="J59" s="36"/>
       <c r="K59" s="36"/>
     </row>
     <row r="60" spans="1:20" ht="14">
-      <c r="A60" s="36">
-        <v>49</v>
+      <c r="A60" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C60" s="27" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E60" s="35">
         <v>6.8475999999999995E-2</v>
@@ -2912,24 +2912,24 @@
         <v>15.928660000000001</v>
       </c>
       <c r="H60" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I60" s="36"/>
       <c r="J60" s="36"/>
       <c r="K60" s="36"/>
     </row>
     <row r="61" spans="1:20" ht="14">
-      <c r="A61" s="36">
-        <v>50</v>
+      <c r="A61" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E61" s="35">
         <v>2.9576000000000002E-2</v>
@@ -2941,24 +2941,24 @@
         <v>14.997019999999999</v>
       </c>
       <c r="H61" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I61" s="36"/>
       <c r="J61" s="36"/>
       <c r="K61" s="36"/>
     </row>
     <row r="62" spans="1:20" ht="13">
-      <c r="A62" s="37">
-        <v>51</v>
+      <c r="A62" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E62" s="38">
         <v>7.6608999999999997E-2</v>
@@ -2970,7 +2970,7 @@
         <v>12.215400000000001</v>
       </c>
       <c r="H62" s="37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I62" s="37"/>
       <c r="J62" s="37"/>
@@ -2986,17 +2986,17 @@
       <c r="T62" s="39"/>
     </row>
     <row r="63" spans="1:20" ht="13">
-      <c r="A63" s="31">
-        <v>52</v>
+      <c r="A63" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E63" s="35">
         <v>7.7010999999999996E-2</v>
@@ -3008,24 +3008,24 @@
         <v>14.933960000000001</v>
       </c>
       <c r="H63" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I63" s="31"/>
       <c r="J63" s="31"/>
       <c r="K63" s="31"/>
     </row>
     <row r="64" spans="1:20" ht="13">
-      <c r="A64" s="37">
-        <v>53</v>
+      <c r="A64" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E64" s="38">
         <v>0.43907299999999999</v>
@@ -3037,7 +3037,7 @@
         <v>23.13158</v>
       </c>
       <c r="H64" s="37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I64" s="37"/>
       <c r="J64" s="37"/>
@@ -3053,17 +3053,17 @@
       <c r="T64" s="39"/>
     </row>
     <row r="65" spans="1:20" ht="13">
-      <c r="A65" s="31">
-        <v>54</v>
+      <c r="A65" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E65" s="35">
         <v>4.6856000000000002E-2</v>
@@ -3075,24 +3075,24 @@
         <v>14.733079999999999</v>
       </c>
       <c r="H65" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I65" s="31"/>
       <c r="J65" s="31"/>
       <c r="K65" s="31"/>
     </row>
     <row r="66" spans="1:20" ht="13">
-      <c r="A66" s="31">
-        <v>55</v>
+      <c r="A66" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E66" s="35">
         <v>4.2376999999999998E-2</v>
@@ -3104,24 +3104,24 @@
         <v>11.904</v>
       </c>
       <c r="H66" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I66" s="31"/>
       <c r="J66" s="31"/>
       <c r="K66" s="31"/>
     </row>
     <row r="67" spans="1:20" ht="14">
-      <c r="A67" s="36">
-        <v>56</v>
+      <c r="A67" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C67" s="29" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E67" s="35">
         <v>1.8694280000000001</v>
@@ -3133,24 +3133,24 @@
         <v>17.546060000000001</v>
       </c>
       <c r="H67" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I67" s="36"/>
       <c r="J67" s="36"/>
       <c r="K67" s="36"/>
     </row>
     <row r="68" spans="1:20" ht="14">
-      <c r="A68" s="36">
-        <v>57</v>
+      <c r="A68" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E68" s="35">
         <v>0.512992</v>
@@ -3162,24 +3162,24 @@
         <v>20.78959</v>
       </c>
       <c r="H68" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I68" s="36"/>
       <c r="J68" s="36"/>
       <c r="K68" s="36"/>
     </row>
     <row r="69" spans="1:20" ht="14">
-      <c r="A69" s="36">
-        <v>58</v>
+      <c r="A69" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D69" s="29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E69" s="35">
         <v>0.398926</v>
@@ -3191,24 +3191,24 @@
         <v>20.070070000000001</v>
       </c>
       <c r="H69" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I69" s="36"/>
       <c r="J69" s="36"/>
       <c r="K69" s="36"/>
     </row>
     <row r="70" spans="1:20" ht="14">
-      <c r="A70" s="36">
-        <v>59</v>
+      <c r="A70" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C70" s="29" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E70" s="35">
         <v>0.28320400000000001</v>
@@ -3220,7 +3220,7 @@
         <v>21.188870000000001</v>
       </c>
       <c r="H70" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I70" s="36"/>
       <c r="J70" s="36"/>
@@ -3228,7 +3228,7 @@
     </row>
     <row r="71" spans="1:20" ht="13">
       <c r="A71" s="32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="15"/>
@@ -3243,7 +3243,7 @@
         <v>4.299944</v>
       </c>
       <c r="H71" s="32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I71" s="32"/>
       <c r="J71" s="32"/>
@@ -3259,17 +3259,17 @@
       <c r="T71" s="34"/>
     </row>
     <row r="72" spans="1:20" ht="14">
-      <c r="A72" s="36">
-        <v>60</v>
+      <c r="A72" s="36" t="s">
+        <v>193</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C72" s="29" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E72" s="35">
         <v>0.29124499999999998</v>
@@ -3281,24 +3281,24 @@
         <v>20.19847</v>
       </c>
       <c r="H72" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I72" s="36"/>
       <c r="J72" s="36"/>
       <c r="K72" s="36"/>
     </row>
     <row r="73" spans="1:20" ht="14">
-      <c r="A73" s="36">
-        <v>61</v>
+      <c r="A73" s="36" t="s">
+        <v>193</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C73" s="29" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D73" s="16" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E73" s="35">
         <v>0.10406600000000001</v>
@@ -3310,24 +3310,24 @@
         <v>22.91986</v>
       </c>
       <c r="H73" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I73" s="36"/>
       <c r="J73" s="36"/>
       <c r="K73" s="36"/>
     </row>
     <row r="74" spans="1:20" ht="14">
-      <c r="A74" s="36">
-        <v>62</v>
+      <c r="A74" s="36" t="s">
+        <v>193</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C74" s="29" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D74" s="16" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E74" s="35">
         <v>0.10985499999999999</v>
@@ -3339,24 +3339,24 @@
         <v>22.023700000000002</v>
       </c>
       <c r="H74" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I74" s="36"/>
       <c r="J74" s="36"/>
       <c r="K74" s="36"/>
     </row>
     <row r="75" spans="1:20" ht="13">
-      <c r="A75" s="31">
-        <v>63</v>
+      <c r="A75" s="36" t="s">
+        <v>193</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D75" s="24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E75" s="35">
         <v>1.50145</v>
@@ -3368,24 +3368,24 @@
         <v>19.08042</v>
       </c>
       <c r="H75" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I75" s="31"/>
       <c r="J75" s="31"/>
       <c r="K75" s="31"/>
     </row>
     <row r="76" spans="1:20" ht="13">
-      <c r="A76" s="31">
-        <v>64</v>
+      <c r="A76" s="36" t="s">
+        <v>193</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D76" s="24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E76" s="35">
         <v>6.1877000000000001E-2</v>
@@ -3397,24 +3397,24 @@
         <v>20.034649999999999</v>
       </c>
       <c r="H76" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I76" s="31"/>
       <c r="J76" s="31"/>
       <c r="K76" s="31"/>
     </row>
     <row r="77" spans="1:20" ht="13">
-      <c r="A77" s="31">
-        <v>65</v>
+      <c r="A77" s="36" t="s">
+        <v>193</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E77" s="35">
         <v>0.243477</v>
@@ -3426,24 +3426,24 @@
         <v>21.72186</v>
       </c>
       <c r="H77" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I77" s="31"/>
       <c r="J77" s="31"/>
       <c r="K77" s="31"/>
     </row>
     <row r="78" spans="1:20" ht="13">
-      <c r="A78" s="31">
-        <v>66</v>
+      <c r="A78" s="36" t="s">
+        <v>193</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D78" s="24" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E78" s="35">
         <v>0.118811</v>
@@ -3455,24 +3455,24 @@
         <v>23.741219999999998</v>
       </c>
       <c r="H78" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I78" s="31"/>
       <c r="J78" s="31"/>
       <c r="K78" s="31"/>
     </row>
     <row r="79" spans="1:20" ht="13">
-      <c r="A79" s="31">
-        <v>67</v>
+      <c r="A79" s="36" t="s">
+        <v>193</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D79" s="24" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E79" s="35">
         <v>0.14069799999999999</v>
@@ -3484,24 +3484,24 @@
         <v>22.377960000000002</v>
       </c>
       <c r="H79" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I79" s="31"/>
       <c r="J79" s="31"/>
       <c r="K79" s="31"/>
     </row>
     <row r="80" spans="1:20" ht="13">
-      <c r="A80" s="31">
-        <v>68</v>
+      <c r="A80" s="36" t="s">
+        <v>193</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D80" s="24" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E80" s="35">
         <v>0.16771900000000001</v>
@@ -3513,24 +3513,24 @@
         <v>23.87013</v>
       </c>
       <c r="H80" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I80" s="31"/>
       <c r="J80" s="31"/>
       <c r="K80" s="31"/>
     </row>
     <row r="81" spans="1:20" ht="13">
-      <c r="A81" s="31">
-        <v>69</v>
+      <c r="A81" s="36" t="s">
+        <v>193</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D81" s="24" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E81" s="35">
         <v>0.105418</v>
@@ -3542,24 +3542,24 @@
         <v>25.554469999999998</v>
       </c>
       <c r="H81" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I81" s="31"/>
       <c r="J81" s="31"/>
       <c r="K81" s="31"/>
     </row>
     <row r="82" spans="1:20" ht="13">
-      <c r="A82" s="31">
-        <v>70</v>
+      <c r="A82" s="36" t="s">
+        <v>193</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C82" s="24" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D82" s="24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E82" s="35">
         <v>4.981E-2</v>
@@ -3571,24 +3571,24 @@
         <v>29.433610000000002</v>
       </c>
       <c r="H82" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I82" s="31"/>
       <c r="J82" s="31"/>
       <c r="K82" s="31"/>
     </row>
     <row r="83" spans="1:20" ht="13">
-      <c r="A83" s="31">
-        <v>71</v>
+      <c r="A83" s="36" t="s">
+        <v>193</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D83" s="24" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E83" s="35">
         <v>4.3857E-2</v>
@@ -3600,24 +3600,24 @@
         <v>28.357099999999999</v>
       </c>
       <c r="H83" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I83" s="31"/>
       <c r="J83" s="31"/>
       <c r="K83" s="31"/>
     </row>
     <row r="84" spans="1:20" ht="13">
-      <c r="A84" s="31">
-        <v>72</v>
+      <c r="A84" s="36" t="s">
+        <v>193</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C84" s="24" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D84" s="24" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E84" s="35">
         <v>2.0705000000000001E-2</v>
@@ -3629,24 +3629,24 @@
         <v>28.414999999999999</v>
       </c>
       <c r="H84" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I84" s="31"/>
       <c r="J84" s="31"/>
       <c r="K84" s="31"/>
     </row>
     <row r="85" spans="1:20" ht="13">
-      <c r="A85" s="36">
-        <v>73</v>
+      <c r="A85" s="36" t="s">
+        <v>193</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D85" s="24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E85" s="35">
         <v>0.90193299999999998</v>
@@ -3658,24 +3658,24 @@
         <v>20.976739999999999</v>
       </c>
       <c r="H85" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I85" s="36"/>
       <c r="J85" s="36"/>
       <c r="K85" s="36"/>
     </row>
     <row r="86" spans="1:20" ht="13">
-      <c r="A86" s="36">
-        <v>74</v>
+      <c r="A86" s="36" t="s">
+        <v>193</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C86" s="24" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D86" s="24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E86" s="35">
         <v>7.0206000000000005E-2</v>
@@ -3687,24 +3687,24 @@
         <v>19.509170000000001</v>
       </c>
       <c r="H86" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I86" s="36"/>
       <c r="J86" s="36"/>
       <c r="K86" s="36"/>
     </row>
     <row r="87" spans="1:20" ht="13">
-      <c r="A87" s="36">
-        <v>75</v>
+      <c r="A87" s="36" t="s">
+        <v>193</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C87" s="24" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D87" s="24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E87" s="35">
         <v>0.15401599999999999</v>
@@ -3716,24 +3716,24 @@
         <v>18.38147</v>
       </c>
       <c r="H87" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I87" s="36"/>
       <c r="J87" s="36"/>
       <c r="K87" s="36"/>
     </row>
     <row r="88" spans="1:20" ht="13">
-      <c r="A88" s="36">
-        <v>76</v>
+      <c r="A88" s="36" t="s">
+        <v>193</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C88" s="24" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D88" s="24" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E88" s="35">
         <v>0.22110099999999999</v>
@@ -3745,24 +3745,24 @@
         <v>20.61185</v>
       </c>
       <c r="H88" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I88" s="36"/>
       <c r="J88" s="36"/>
       <c r="K88" s="36"/>
     </row>
     <row r="89" spans="1:20" ht="13">
-      <c r="A89" s="36">
-        <v>77</v>
+      <c r="A89" s="36" t="s">
+        <v>193</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C89" s="24" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D89" s="24" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E89" s="35">
         <v>0.21507799999999999</v>
@@ -3774,24 +3774,24 @@
         <v>22.256630000000001</v>
       </c>
       <c r="H89" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I89" s="36"/>
       <c r="J89" s="36"/>
       <c r="K89" s="36"/>
     </row>
     <row r="90" spans="1:20" ht="13">
-      <c r="A90" s="36">
-        <v>78</v>
+      <c r="A90" s="36" t="s">
+        <v>193</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C90" s="24" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D90" s="24" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E90" s="35">
         <v>0.18893699999999999</v>
@@ -3803,24 +3803,24 @@
         <v>23.144130000000001</v>
       </c>
       <c r="H90" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I90" s="36"/>
       <c r="J90" s="36"/>
       <c r="K90" s="36"/>
     </row>
     <row r="91" spans="1:20" ht="13">
-      <c r="A91" s="36">
-        <v>79</v>
+      <c r="A91" s="36" t="s">
+        <v>193</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D91" s="24" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E91" s="35">
         <v>0.16860900000000001</v>
@@ -3832,7 +3832,7 @@
         <v>22.268640000000001</v>
       </c>
       <c r="H91" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I91" s="36"/>
       <c r="J91" s="36"/>
@@ -3840,7 +3840,7 @@
     </row>
     <row r="92" spans="1:20" ht="13">
       <c r="A92" s="32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="15"/>
@@ -3855,7 +3855,7 @@
         <v>4.2794809999999996</v>
       </c>
       <c r="H92" s="32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I92" s="32"/>
       <c r="J92" s="32"/>
@@ -3871,17 +3871,17 @@
       <c r="T92" s="34"/>
     </row>
     <row r="93" spans="1:20" ht="13">
-      <c r="A93" s="36">
-        <v>80</v>
+      <c r="A93" s="36" t="s">
+        <v>193</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C93" s="24" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D93" s="24" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E93" s="35">
         <v>8.8525000000000006E-2</v>
@@ -3893,24 +3893,24 @@
         <v>23.475680000000001</v>
       </c>
       <c r="H93" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I93" s="36"/>
       <c r="J93" s="36"/>
       <c r="K93" s="36"/>
     </row>
     <row r="94" spans="1:20" ht="13">
-      <c r="A94" s="36">
-        <v>81</v>
+      <c r="A94" s="36" t="s">
+        <v>193</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C94" s="24" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D94" s="24" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="E94" s="35">
         <v>1.2055E-2</v>
@@ -3922,24 +3922,24 @@
         <v>29.69631</v>
       </c>
       <c r="H94" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I94" s="36"/>
       <c r="J94" s="36"/>
       <c r="K94" s="36"/>
     </row>
     <row r="95" spans="1:20" ht="13">
-      <c r="A95" s="36">
-        <v>82</v>
+      <c r="A95" s="36" t="s">
+        <v>193</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D95" s="16" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E95" s="35">
         <v>8.2380000000000005E-3</v>
@@ -3951,24 +3951,24 @@
         <v>24.44088</v>
       </c>
       <c r="H95" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I95" s="36"/>
       <c r="J95" s="36"/>
       <c r="K95" s="36"/>
     </row>
     <row r="96" spans="1:20" ht="13">
-      <c r="A96" s="36">
-        <v>83</v>
+      <c r="A96" s="36" t="s">
+        <v>193</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E96" s="35">
         <v>7.9159999999999994E-3</v>
@@ -3980,24 +3980,24 @@
         <v>22.03191</v>
       </c>
       <c r="H96" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I96" s="36"/>
       <c r="J96" s="36"/>
       <c r="K96" s="36"/>
     </row>
     <row r="97" spans="1:20" ht="13">
-      <c r="A97" s="36">
-        <v>84</v>
+      <c r="A97" s="36" t="s">
+        <v>193</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C97" s="24" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E97" s="35">
         <v>0.52591699999999997</v>
@@ -4009,24 +4009,24 @@
         <v>21.947790000000001</v>
       </c>
       <c r="H97" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I97" s="36"/>
       <c r="J97" s="36"/>
       <c r="K97" s="36"/>
     </row>
     <row r="98" spans="1:20" ht="13">
-      <c r="A98" s="36">
-        <v>85</v>
+      <c r="A98" s="36" t="s">
+        <v>193</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C98" s="24" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D98" s="24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E98" s="35">
         <v>5.509E-2</v>
@@ -4038,24 +4038,24 @@
         <v>17.817170000000001</v>
       </c>
       <c r="H98" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I98" s="36"/>
       <c r="J98" s="36"/>
       <c r="K98" s="36"/>
     </row>
     <row r="99" spans="1:20" ht="13">
-      <c r="A99" s="31">
-        <v>86</v>
+      <c r="A99" s="36" t="s">
+        <v>193</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C99" s="24" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D99" s="24" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E99" s="35">
         <v>0.26409100000000002</v>
@@ -4067,24 +4067,24 @@
         <v>19.874939999999999</v>
       </c>
       <c r="H99" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I99" s="31"/>
       <c r="J99" s="31"/>
       <c r="K99" s="31"/>
     </row>
     <row r="100" spans="1:20" ht="13">
-      <c r="A100" s="31">
-        <v>87</v>
+      <c r="A100" s="36" t="s">
+        <v>193</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C100" s="24" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D100" s="24" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E100" s="35">
         <v>0.187884</v>
@@ -4096,24 +4096,24 @@
         <v>24.869009999999999</v>
       </c>
       <c r="H100" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I100" s="31"/>
       <c r="J100" s="31"/>
       <c r="K100" s="31"/>
     </row>
     <row r="101" spans="1:20" ht="13">
-      <c r="A101" s="31">
-        <v>88</v>
+      <c r="A101" s="36" t="s">
+        <v>193</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C101" s="24" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D101" s="24" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E101" s="35">
         <v>0.228905</v>
@@ -4125,24 +4125,24 @@
         <v>25.837150000000001</v>
       </c>
       <c r="H101" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I101" s="31"/>
       <c r="J101" s="31"/>
       <c r="K101" s="31"/>
     </row>
     <row r="102" spans="1:20" ht="13">
-      <c r="A102" s="31">
-        <v>89</v>
+      <c r="A102" s="36" t="s">
+        <v>193</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C102" s="24" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E102" s="35">
         <v>0.203293</v>
@@ -4154,7 +4154,7 @@
         <v>24.666599999999999</v>
       </c>
       <c r="H102" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I102" s="31"/>
       <c r="J102" s="31"/>
@@ -4165,7 +4165,7 @@
         <v>90</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C103" s="19"/>
       <c r="D103" s="19"/>
@@ -4179,29 +4179,29 @@
         <v>0</v>
       </c>
       <c r="H103" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="I103" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="J103" s="43"/>
-      <c r="K103" s="43"/>
-      <c r="L103" s="44"/>
-      <c r="M103" s="44"/>
-      <c r="N103" s="44"/>
-      <c r="O103" s="44"/>
-      <c r="P103" s="44"/>
-      <c r="Q103" s="44"/>
-      <c r="R103" s="44"/>
-      <c r="S103" s="44"/>
-      <c r="T103" s="44"/>
+        <v>7</v>
+      </c>
+      <c r="I103" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="J103" s="52"/>
+      <c r="K103" s="52"/>
+      <c r="L103" s="42"/>
+      <c r="M103" s="42"/>
+      <c r="N103" s="42"/>
+      <c r="O103" s="42"/>
+      <c r="P103" s="42"/>
+      <c r="Q103" s="42"/>
+      <c r="R103" s="42"/>
+      <c r="S103" s="42"/>
+      <c r="T103" s="42"/>
     </row>
     <row r="104" spans="1:20" ht="13">
       <c r="A104" s="40">
         <v>91</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C104" s="19"/>
       <c r="D104" s="19"/>
@@ -4215,29 +4215,29 @@
         <v>19.836069999999999</v>
       </c>
       <c r="H104" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="I104" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="J104" s="43"/>
-      <c r="K104" s="43"/>
-      <c r="L104" s="44"/>
-      <c r="M104" s="44"/>
-      <c r="N104" s="44"/>
-      <c r="O104" s="44"/>
-      <c r="P104" s="44"/>
-      <c r="Q104" s="44"/>
-      <c r="R104" s="44"/>
-      <c r="S104" s="44"/>
-      <c r="T104" s="44"/>
+        <v>7</v>
+      </c>
+      <c r="I104" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="J104" s="52"/>
+      <c r="K104" s="52"/>
+      <c r="L104" s="42"/>
+      <c r="M104" s="42"/>
+      <c r="N104" s="42"/>
+      <c r="O104" s="42"/>
+      <c r="P104" s="42"/>
+      <c r="Q104" s="42"/>
+      <c r="R104" s="42"/>
+      <c r="S104" s="42"/>
+      <c r="T104" s="42"/>
     </row>
     <row r="105" spans="1:20" ht="13">
       <c r="A105" s="40">
         <v>92</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C105" s="19"/>
       <c r="D105" s="19"/>
@@ -4251,29 +4251,29 @@
         <v>19.306840000000001</v>
       </c>
       <c r="H105" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="I105" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="J105" s="43"/>
-      <c r="K105" s="43"/>
-      <c r="L105" s="44"/>
-      <c r="M105" s="44"/>
-      <c r="N105" s="44"/>
-      <c r="O105" s="44"/>
-      <c r="P105" s="44"/>
-      <c r="Q105" s="44"/>
-      <c r="R105" s="44"/>
-      <c r="S105" s="44"/>
-      <c r="T105" s="44"/>
+        <v>7</v>
+      </c>
+      <c r="I105" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="J105" s="52"/>
+      <c r="K105" s="52"/>
+      <c r="L105" s="42"/>
+      <c r="M105" s="42"/>
+      <c r="N105" s="42"/>
+      <c r="O105" s="42"/>
+      <c r="P105" s="42"/>
+      <c r="Q105" s="42"/>
+      <c r="R105" s="42"/>
+      <c r="S105" s="42"/>
+      <c r="T105" s="42"/>
     </row>
     <row r="106" spans="1:20" ht="13">
       <c r="A106" s="40">
         <v>93</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C106" s="19"/>
       <c r="D106" s="19"/>
@@ -4287,29 +4287,29 @@
         <v>26.558769999999999</v>
       </c>
       <c r="H106" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="I106" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="J106" s="43"/>
-      <c r="K106" s="43"/>
-      <c r="L106" s="44"/>
-      <c r="M106" s="44"/>
-      <c r="N106" s="44"/>
-      <c r="O106" s="44"/>
-      <c r="P106" s="44"/>
-      <c r="Q106" s="44"/>
-      <c r="R106" s="44"/>
-      <c r="S106" s="44"/>
-      <c r="T106" s="44"/>
+        <v>7</v>
+      </c>
+      <c r="I106" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="J106" s="52"/>
+      <c r="K106" s="52"/>
+      <c r="L106" s="42"/>
+      <c r="M106" s="42"/>
+      <c r="N106" s="42"/>
+      <c r="O106" s="42"/>
+      <c r="P106" s="42"/>
+      <c r="Q106" s="42"/>
+      <c r="R106" s="42"/>
+      <c r="S106" s="42"/>
+      <c r="T106" s="42"/>
     </row>
     <row r="107" spans="1:20" ht="13">
       <c r="A107" s="40">
         <v>94</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C107" s="19"/>
       <c r="D107" s="19"/>
@@ -4323,29 +4323,29 @@
         <v>20.082820000000002</v>
       </c>
       <c r="H107" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="I107" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="J107" s="43"/>
-      <c r="K107" s="43"/>
-      <c r="L107" s="44"/>
-      <c r="M107" s="44"/>
-      <c r="N107" s="44"/>
-      <c r="O107" s="44"/>
-      <c r="P107" s="44"/>
-      <c r="Q107" s="44"/>
-      <c r="R107" s="44"/>
-      <c r="S107" s="44"/>
-      <c r="T107" s="44"/>
+        <v>7</v>
+      </c>
+      <c r="I107" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="J107" s="52"/>
+      <c r="K107" s="52"/>
+      <c r="L107" s="42"/>
+      <c r="M107" s="42"/>
+      <c r="N107" s="42"/>
+      <c r="O107" s="42"/>
+      <c r="P107" s="42"/>
+      <c r="Q107" s="42"/>
+      <c r="R107" s="42"/>
+      <c r="S107" s="42"/>
+      <c r="T107" s="42"/>
     </row>
     <row r="108" spans="1:20" ht="13">
       <c r="A108" s="40">
         <v>95</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C108" s="19"/>
       <c r="D108" s="19"/>
@@ -4359,29 +4359,29 @@
         <v>11.193860000000001</v>
       </c>
       <c r="H108" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="I108" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="J108" s="43"/>
-      <c r="K108" s="43"/>
-      <c r="L108" s="44"/>
-      <c r="M108" s="44"/>
-      <c r="N108" s="44"/>
-      <c r="O108" s="44"/>
-      <c r="P108" s="44"/>
-      <c r="Q108" s="44"/>
-      <c r="R108" s="44"/>
-      <c r="S108" s="44"/>
-      <c r="T108" s="44"/>
+        <v>7</v>
+      </c>
+      <c r="I108" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="J108" s="52"/>
+      <c r="K108" s="52"/>
+      <c r="L108" s="42"/>
+      <c r="M108" s="42"/>
+      <c r="N108" s="42"/>
+      <c r="O108" s="42"/>
+      <c r="P108" s="42"/>
+      <c r="Q108" s="42"/>
+      <c r="R108" s="42"/>
+      <c r="S108" s="42"/>
+      <c r="T108" s="42"/>
     </row>
     <row r="109" spans="1:20" ht="13">
       <c r="A109" s="40">
         <v>96</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C109" s="19"/>
       <c r="D109" s="19"/>
@@ -4395,29 +4395,29 @@
         <v>20.71313</v>
       </c>
       <c r="H109" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="I109" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="J109" s="43"/>
-      <c r="K109" s="43"/>
-      <c r="L109" s="44"/>
-      <c r="M109" s="44"/>
-      <c r="N109" s="44"/>
-      <c r="O109" s="44"/>
-      <c r="P109" s="44"/>
-      <c r="Q109" s="44"/>
-      <c r="R109" s="44"/>
-      <c r="S109" s="44"/>
-      <c r="T109" s="44"/>
+        <v>7</v>
+      </c>
+      <c r="I109" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="J109" s="52"/>
+      <c r="K109" s="52"/>
+      <c r="L109" s="42"/>
+      <c r="M109" s="42"/>
+      <c r="N109" s="42"/>
+      <c r="O109" s="42"/>
+      <c r="P109" s="42"/>
+      <c r="Q109" s="42"/>
+      <c r="R109" s="42"/>
+      <c r="S109" s="42"/>
+      <c r="T109" s="42"/>
     </row>
     <row r="110" spans="1:20" ht="13">
       <c r="A110" s="40">
         <v>97</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C110" s="19"/>
       <c r="D110" s="19"/>
@@ -4431,29 +4431,29 @@
         <v>27.373650000000001</v>
       </c>
       <c r="H110" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="I110" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="J110" s="43"/>
-      <c r="K110" s="43"/>
-      <c r="L110" s="44"/>
-      <c r="M110" s="44"/>
-      <c r="N110" s="44"/>
-      <c r="O110" s="44"/>
-      <c r="P110" s="44"/>
-      <c r="Q110" s="44"/>
-      <c r="R110" s="44"/>
-      <c r="S110" s="44"/>
-      <c r="T110" s="44"/>
+        <v>7</v>
+      </c>
+      <c r="I110" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="J110" s="52"/>
+      <c r="K110" s="52"/>
+      <c r="L110" s="42"/>
+      <c r="M110" s="42"/>
+      <c r="N110" s="42"/>
+      <c r="O110" s="42"/>
+      <c r="P110" s="42"/>
+      <c r="Q110" s="42"/>
+      <c r="R110" s="42"/>
+      <c r="S110" s="42"/>
+      <c r="T110" s="42"/>
     </row>
     <row r="111" spans="1:20" ht="13">
       <c r="A111" s="40">
         <v>98</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C111" s="19"/>
       <c r="D111" s="19"/>
@@ -4467,26 +4467,26 @@
         <v>17.18824</v>
       </c>
       <c r="H111" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="I111" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="J111" s="43"/>
-      <c r="K111" s="43"/>
-      <c r="L111" s="44"/>
-      <c r="M111" s="44"/>
-      <c r="N111" s="44"/>
-      <c r="O111" s="44"/>
-      <c r="P111" s="44"/>
-      <c r="Q111" s="44"/>
-      <c r="R111" s="44"/>
-      <c r="S111" s="44"/>
-      <c r="T111" s="44"/>
+        <v>7</v>
+      </c>
+      <c r="I111" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="J111" s="52"/>
+      <c r="K111" s="52"/>
+      <c r="L111" s="42"/>
+      <c r="M111" s="42"/>
+      <c r="N111" s="42"/>
+      <c r="O111" s="42"/>
+      <c r="P111" s="42"/>
+      <c r="Q111" s="42"/>
+      <c r="R111" s="42"/>
+      <c r="S111" s="42"/>
+      <c r="T111" s="42"/>
     </row>
     <row r="112" spans="1:20" ht="13">
       <c r="A112" s="40" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B112" s="9"/>
       <c r="C112" s="20"/>
@@ -4501,29 +4501,29 @@
         <v>21.018899999999999</v>
       </c>
       <c r="H112" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="I112" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="J112" s="43"/>
-      <c r="K112" s="43"/>
-      <c r="L112" s="44"/>
-      <c r="M112" s="44"/>
-      <c r="N112" s="44"/>
-      <c r="O112" s="44"/>
-      <c r="P112" s="44"/>
-      <c r="Q112" s="44"/>
-      <c r="R112" s="44"/>
-      <c r="S112" s="44"/>
-      <c r="T112" s="44"/>
+        <v>4</v>
+      </c>
+      <c r="I112" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="J112" s="52"/>
+      <c r="K112" s="52"/>
+      <c r="L112" s="42"/>
+      <c r="M112" s="42"/>
+      <c r="N112" s="42"/>
+      <c r="O112" s="42"/>
+      <c r="P112" s="42"/>
+      <c r="Q112" s="42"/>
+      <c r="R112" s="42"/>
+      <c r="S112" s="42"/>
+      <c r="T112" s="42"/>
     </row>
     <row r="113" spans="1:20" ht="13">
       <c r="A113" s="40">
         <v>99</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C113" s="19"/>
       <c r="D113" s="19"/>
@@ -4537,29 +4537,29 @@
         <v>4.2953060000000001</v>
       </c>
       <c r="H113" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="I113" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="J113" s="43"/>
-      <c r="K113" s="43"/>
-      <c r="L113" s="44"/>
-      <c r="M113" s="44"/>
-      <c r="N113" s="44"/>
-      <c r="O113" s="44"/>
-      <c r="P113" s="44"/>
-      <c r="Q113" s="44"/>
-      <c r="R113" s="44"/>
-      <c r="S113" s="44"/>
-      <c r="T113" s="44"/>
+        <v>7</v>
+      </c>
+      <c r="I113" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="J113" s="52"/>
+      <c r="K113" s="52"/>
+      <c r="L113" s="42"/>
+      <c r="M113" s="42"/>
+      <c r="N113" s="42"/>
+      <c r="O113" s="42"/>
+      <c r="P113" s="42"/>
+      <c r="Q113" s="42"/>
+      <c r="R113" s="42"/>
+      <c r="S113" s="42"/>
+      <c r="T113" s="42"/>
     </row>
     <row r="114" spans="1:20" ht="13">
       <c r="A114" s="40">
         <v>100</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C114" s="19"/>
       <c r="D114" s="19"/>
@@ -4573,29 +4573,29 @@
         <v>21.42231</v>
       </c>
       <c r="H114" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="I114" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="J114" s="43"/>
-      <c r="K114" s="43"/>
-      <c r="L114" s="44"/>
-      <c r="M114" s="44"/>
-      <c r="N114" s="44"/>
-      <c r="O114" s="44"/>
-      <c r="P114" s="44"/>
-      <c r="Q114" s="44"/>
-      <c r="R114" s="44"/>
-      <c r="S114" s="44"/>
-      <c r="T114" s="44"/>
+        <v>7</v>
+      </c>
+      <c r="I114" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="J114" s="52"/>
+      <c r="K114" s="52"/>
+      <c r="L114" s="42"/>
+      <c r="M114" s="42"/>
+      <c r="N114" s="42"/>
+      <c r="O114" s="42"/>
+      <c r="P114" s="42"/>
+      <c r="Q114" s="42"/>
+      <c r="R114" s="42"/>
+      <c r="S114" s="42"/>
+      <c r="T114" s="42"/>
     </row>
     <row r="115" spans="1:20" ht="13">
       <c r="A115" s="40">
         <v>101</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C115" s="19"/>
       <c r="D115" s="19"/>
@@ -4609,32 +4609,32 @@
         <v>24.9451</v>
       </c>
       <c r="H115" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="I115" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="J115" s="43"/>
-      <c r="K115" s="43"/>
-      <c r="L115" s="44"/>
-      <c r="M115" s="44"/>
-      <c r="N115" s="44"/>
-      <c r="O115" s="44"/>
-      <c r="P115" s="44"/>
-      <c r="Q115" s="44"/>
-      <c r="R115" s="44"/>
-      <c r="S115" s="44"/>
-      <c r="T115" s="44"/>
+        <v>7</v>
+      </c>
+      <c r="I115" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="J115" s="52"/>
+      <c r="K115" s="52"/>
+      <c r="L115" s="42"/>
+      <c r="M115" s="42"/>
+      <c r="N115" s="42"/>
+      <c r="O115" s="42"/>
+      <c r="P115" s="42"/>
+      <c r="Q115" s="42"/>
+      <c r="R115" s="42"/>
+      <c r="S115" s="42"/>
+      <c r="T115" s="42"/>
     </row>
     <row r="116" spans="1:20" ht="13">
-      <c r="A116" s="31">
-        <v>102</v>
+      <c r="A116" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D116" s="16">
         <v>3</v>
@@ -4649,24 +4649,24 @@
         <v>10.33395</v>
       </c>
       <c r="H116" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I116" s="31"/>
       <c r="J116" s="31"/>
       <c r="K116" s="31"/>
     </row>
     <row r="117" spans="1:20" ht="13">
-      <c r="A117" s="36">
-        <v>103</v>
+      <c r="A117" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C117" s="24" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E117" s="35">
         <v>1.3478289999999999</v>
@@ -4678,24 +4678,24 @@
         <v>18.314150000000001</v>
       </c>
       <c r="H117" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I117" s="36"/>
       <c r="J117" s="36"/>
       <c r="K117" s="36"/>
     </row>
     <row r="118" spans="1:20" ht="13">
-      <c r="A118" s="36">
-        <v>104</v>
+      <c r="A118" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C118" s="24" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D118" s="24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E118" s="35">
         <v>0.31145200000000001</v>
@@ -4707,24 +4707,24 @@
         <v>15.6584</v>
       </c>
       <c r="H118" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I118" s="36"/>
       <c r="J118" s="36"/>
       <c r="K118" s="36"/>
     </row>
     <row r="119" spans="1:20" ht="13">
-      <c r="A119" s="36">
-        <v>105</v>
+      <c r="A119" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C119" s="24" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D119" s="24" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E119" s="35">
         <v>0.22659000000000001</v>
@@ -4736,24 +4736,24 @@
         <v>16.890779999999999</v>
       </c>
       <c r="H119" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I119" s="36"/>
       <c r="J119" s="36"/>
       <c r="K119" s="36"/>
     </row>
     <row r="120" spans="1:20" ht="13">
-      <c r="A120" s="36">
-        <v>106</v>
+      <c r="A120" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C120" s="24" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D120" s="24" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E120" s="35">
         <v>0.26268999999999998</v>
@@ -4765,24 +4765,24 @@
         <v>19.115739999999999</v>
       </c>
       <c r="H120" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I120" s="36"/>
       <c r="J120" s="36"/>
       <c r="K120" s="36"/>
     </row>
     <row r="121" spans="1:20" ht="13">
-      <c r="A121" s="36">
-        <v>107</v>
+      <c r="A121" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C121" s="24" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D121" s="24" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E121" s="35">
         <v>0.212924</v>
@@ -4794,24 +4794,24 @@
         <v>20.115690000000001</v>
       </c>
       <c r="H121" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I121" s="36"/>
       <c r="J121" s="36"/>
       <c r="K121" s="36"/>
     </row>
     <row r="122" spans="1:20" ht="13">
-      <c r="A122" s="36">
-        <v>108</v>
+      <c r="A122" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C122" s="24" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D122" s="24" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E122" s="35">
         <v>0.159437</v>
@@ -4823,24 +4823,24 @@
         <v>21.136849999999999</v>
       </c>
       <c r="H122" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I122" s="36"/>
       <c r="J122" s="36"/>
       <c r="K122" s="36"/>
     </row>
     <row r="123" spans="1:20" ht="13">
-      <c r="A123" s="36">
-        <v>109</v>
+      <c r="A123" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C123" s="24" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D123" s="24" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E123" s="35">
         <v>0.124958</v>
@@ -4852,24 +4852,24 @@
         <v>21.339580000000002</v>
       </c>
       <c r="H123" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I123" s="36"/>
       <c r="J123" s="36"/>
       <c r="K123" s="36"/>
     </row>
     <row r="124" spans="1:20" ht="13">
-      <c r="A124" s="36">
-        <v>110</v>
+      <c r="A124" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C124" s="24" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D124" s="24" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E124" s="35">
         <v>9.0452000000000005E-2</v>
@@ -4881,24 +4881,24 @@
         <v>22.011500000000002</v>
       </c>
       <c r="H124" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I124" s="36"/>
       <c r="J124" s="36"/>
       <c r="K124" s="36"/>
     </row>
     <row r="125" spans="1:20" ht="13">
-      <c r="A125" s="36">
-        <v>111</v>
+      <c r="A125" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C125" s="24" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D125" s="24" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E125" s="35">
         <v>8.5330000000000003E-2</v>
@@ -4910,24 +4910,24 @@
         <v>21.845829999999999</v>
       </c>
       <c r="H125" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I125" s="36"/>
       <c r="J125" s="36"/>
       <c r="K125" s="36"/>
     </row>
     <row r="126" spans="1:20" ht="13">
-      <c r="A126" s="36">
-        <v>112</v>
+      <c r="A126" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C126" s="24" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D126" s="24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E126" s="35">
         <v>4.6387999999999999E-2</v>
@@ -4939,24 +4939,24 @@
         <v>24.33004</v>
       </c>
       <c r="H126" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I126" s="36"/>
       <c r="J126" s="36"/>
       <c r="K126" s="36"/>
     </row>
     <row r="127" spans="1:20" ht="13">
-      <c r="A127" s="36">
-        <v>113</v>
+      <c r="A127" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C127" s="24" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D127" s="24" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E127" s="35">
         <v>1.2708000000000001E-2</v>
@@ -4968,24 +4968,24 @@
         <v>31.61026</v>
       </c>
       <c r="H127" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I127" s="36"/>
       <c r="J127" s="36"/>
       <c r="K127" s="36"/>
     </row>
     <row r="128" spans="1:20" ht="13">
-      <c r="A128" s="36">
-        <v>114</v>
+      <c r="A128" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C128" s="24" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D128" s="16" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E128" s="35">
         <v>9.5700000000000004E-3</v>
@@ -4997,7 +4997,7 @@
         <v>22.049990000000001</v>
       </c>
       <c r="H128" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I128" s="36"/>
       <c r="J128" s="36"/>
@@ -5008,7 +5008,7 @@
         <v>115</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C129" s="17"/>
       <c r="D129" s="17"/>
@@ -5022,7 +5022,7 @@
         <v>19.65156</v>
       </c>
       <c r="H129" s="32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I129" s="32"/>
       <c r="J129" s="32"/>
@@ -5042,7 +5042,7 @@
         <v>116</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C130" s="17"/>
       <c r="D130" s="17"/>
@@ -5056,7 +5056,7 @@
         <v>19.76641</v>
       </c>
       <c r="H130" s="32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I130" s="32"/>
       <c r="J130" s="32"/>
@@ -5076,7 +5076,7 @@
         <v>117</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C131" s="17"/>
       <c r="D131" s="17"/>
@@ -5090,7 +5090,7 @@
         <v>20.35566</v>
       </c>
       <c r="H131" s="32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I131" s="32"/>
       <c r="J131" s="32"/>
@@ -5110,7 +5110,7 @@
         <v>118</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C132" s="17"/>
       <c r="D132" s="17"/>
@@ -5124,7 +5124,7 @@
         <v>20.66414</v>
       </c>
       <c r="H132" s="32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I132" s="32"/>
       <c r="J132" s="32"/>
@@ -5140,40 +5140,40 @@
       <c r="T132" s="34"/>
     </row>
     <row r="133" spans="1:20" ht="13">
-      <c r="A133" s="45">
+      <c r="A133" s="43">
         <v>101</v>
       </c>
       <c r="B133" s="8"/>
       <c r="C133" s="19"/>
       <c r="D133" s="19"/>
-      <c r="E133" s="46">
+      <c r="E133" s="44">
         <v>9.3499999999999996E-4</v>
       </c>
-      <c r="F133" s="46">
+      <c r="F133" s="44">
         <v>4.4095000000000002E-2</v>
       </c>
-      <c r="G133" s="46">
+      <c r="G133" s="44">
         <v>47.171080000000003</v>
       </c>
-      <c r="H133" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="I133" s="45"/>
-      <c r="J133" s="45"/>
-      <c r="K133" s="45"/>
-      <c r="L133" s="44"/>
-      <c r="M133" s="44"/>
-      <c r="N133" s="44"/>
-      <c r="O133" s="44"/>
-      <c r="P133" s="44"/>
-      <c r="Q133" s="44"/>
-      <c r="R133" s="44"/>
-      <c r="S133" s="44"/>
-      <c r="T133" s="44"/>
+      <c r="H133" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="I133" s="43"/>
+      <c r="J133" s="43"/>
+      <c r="K133" s="43"/>
+      <c r="L133" s="42"/>
+      <c r="M133" s="42"/>
+      <c r="N133" s="42"/>
+      <c r="O133" s="42"/>
+      <c r="P133" s="42"/>
+      <c r="Q133" s="42"/>
+      <c r="R133" s="42"/>
+      <c r="S133" s="42"/>
+      <c r="T133" s="42"/>
     </row>
     <row r="134" spans="1:20" ht="13">
       <c r="A134" s="32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B134" s="3"/>
       <c r="C134" s="15"/>
@@ -5188,7 +5188,7 @@
         <v>4.2725299999999997</v>
       </c>
       <c r="H134" s="32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I134" s="32"/>
       <c r="J134" s="32"/>
@@ -5205,7 +5205,7 @@
     </row>
     <row r="135" spans="1:20" ht="13">
       <c r="A135" s="32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B135" s="3"/>
       <c r="C135" s="15"/>
@@ -5220,7 +5220,7 @@
         <v>15.836119999999999</v>
       </c>
       <c r="H135" s="32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I135" s="32"/>
       <c r="J135" s="32"/>
@@ -5236,17 +5236,17 @@
       <c r="T135" s="34"/>
     </row>
     <row r="136" spans="1:20" ht="13">
-      <c r="A136" s="31">
-        <v>90</v>
+      <c r="A136" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C136" s="24" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D136" s="24" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E136" s="35">
         <v>0.129888</v>
@@ -5258,24 +5258,24 @@
         <v>19.87011</v>
       </c>
       <c r="H136" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I136" s="31"/>
       <c r="J136" s="31"/>
       <c r="K136" s="31"/>
     </row>
     <row r="137" spans="1:20" ht="13">
-      <c r="A137" s="31">
-        <v>91</v>
+      <c r="A137" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C137" s="24" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D137" s="24" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E137" s="35">
         <v>0.114135</v>
@@ -5287,24 +5287,24 @@
         <v>20.54233</v>
       </c>
       <c r="H137" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I137" s="31"/>
       <c r="J137" s="31"/>
       <c r="K137" s="31"/>
     </row>
     <row r="138" spans="1:20" ht="13">
-      <c r="A138" s="31">
-        <v>92</v>
+      <c r="A138" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C138" s="24" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D138" s="16" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E138" s="35">
         <v>2.0903999999999999E-2</v>
@@ -5316,24 +5316,24 @@
         <v>13.54524</v>
       </c>
       <c r="H138" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I138" s="31"/>
       <c r="J138" s="31"/>
       <c r="K138" s="31"/>
     </row>
     <row r="139" spans="1:20" ht="13">
-      <c r="A139" s="31">
-        <v>93</v>
+      <c r="A139" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C139" s="24" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D139" s="16" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E139" s="35">
         <v>7.9220000000000002E-3</v>
@@ -5345,24 +5345,24 @@
         <v>19.488430000000001</v>
       </c>
       <c r="H139" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I139" s="31"/>
       <c r="J139" s="31"/>
       <c r="K139" s="31"/>
     </row>
     <row r="140" spans="1:20" ht="13">
-      <c r="A140" s="31">
-        <v>94</v>
+      <c r="A140" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C140" s="24" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D140" s="16" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E140" s="35">
         <v>6.2769999999999996E-3</v>
@@ -5374,419 +5374,419 @@
         <v>7.8516199999999996</v>
       </c>
       <c r="H140" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I140" s="31"/>
       <c r="J140" s="31"/>
       <c r="K140" s="31"/>
     </row>
     <row r="141" spans="1:20" ht="13">
-      <c r="A141" s="47">
-        <v>95</v>
+      <c r="A141" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B141" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C141" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="D141" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="E141" s="46">
+        <v>2.0958000000000001E-2</v>
+      </c>
+      <c r="F141" s="46">
+        <v>0.43411699999999998</v>
+      </c>
+      <c r="G141" s="46">
+        <v>20.713349999999998</v>
+      </c>
+      <c r="H141" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="I141" s="45"/>
+      <c r="J141" s="45"/>
+      <c r="K141" s="45"/>
+      <c r="L141" s="47"/>
+      <c r="M141" s="47"/>
+      <c r="N141" s="47"/>
+      <c r="O141" s="47"/>
+      <c r="P141" s="47"/>
+      <c r="Q141" s="47"/>
+      <c r="R141" s="47"/>
+      <c r="S141" s="47"/>
+      <c r="T141" s="47"/>
+    </row>
+    <row r="142" spans="1:20" ht="13">
+      <c r="A142" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="B142" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C141" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="D141" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="E141" s="48">
-        <v>2.0958000000000001E-2</v>
-      </c>
-      <c r="F141" s="48">
-        <v>0.43411699999999998</v>
-      </c>
-      <c r="G141" s="48">
-        <v>20.713349999999998</v>
-      </c>
-      <c r="H141" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="I141" s="47"/>
-      <c r="J141" s="47"/>
-      <c r="K141" s="47"/>
-      <c r="L141" s="49"/>
-      <c r="M141" s="49"/>
-      <c r="N141" s="49"/>
-      <c r="O141" s="49"/>
-      <c r="P141" s="49"/>
-      <c r="Q141" s="49"/>
-      <c r="R141" s="49"/>
-      <c r="S141" s="49"/>
-      <c r="T141" s="49"/>
-    </row>
-    <row r="142" spans="1:20" ht="13">
-      <c r="A142" s="47">
-        <v>96</v>
-      </c>
-      <c r="B142" s="10" t="s">
+      <c r="C142" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="D142" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="E142" s="46">
+        <v>1.2517E-2</v>
+      </c>
+      <c r="F142" s="46">
+        <v>0.33124700000000001</v>
+      </c>
+      <c r="G142" s="46">
+        <v>26.463570000000001</v>
+      </c>
+      <c r="H142" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="I142" s="45"/>
+      <c r="J142" s="45"/>
+      <c r="K142" s="45"/>
+      <c r="L142" s="47"/>
+      <c r="M142" s="47"/>
+      <c r="N142" s="47"/>
+      <c r="O142" s="47"/>
+      <c r="P142" s="47"/>
+      <c r="Q142" s="47"/>
+      <c r="R142" s="47"/>
+      <c r="S142" s="47"/>
+      <c r="T142" s="47"/>
+    </row>
+    <row r="143" spans="1:20" ht="14">
+      <c r="A143" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="B143" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C142" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="D142" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="E142" s="48">
-        <v>1.2517E-2</v>
-      </c>
-      <c r="F142" s="48">
-        <v>0.33124700000000001</v>
-      </c>
-      <c r="G142" s="48">
-        <v>26.463570000000001</v>
-      </c>
-      <c r="H142" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="I142" s="47"/>
-      <c r="J142" s="47"/>
-      <c r="K142" s="47"/>
-      <c r="L142" s="49"/>
-      <c r="M142" s="49"/>
-      <c r="N142" s="49"/>
-      <c r="O142" s="49"/>
-      <c r="P142" s="49"/>
-      <c r="Q142" s="49"/>
-      <c r="R142" s="49"/>
-      <c r="S142" s="49"/>
-      <c r="T142" s="49"/>
-    </row>
-    <row r="143" spans="1:20" ht="14">
-      <c r="A143" s="47">
-        <v>97</v>
-      </c>
-      <c r="B143" s="10" t="s">
+      <c r="C143" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="D143" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="E143" s="46">
+        <v>1.962904</v>
+      </c>
+      <c r="F143" s="46">
+        <v>33.985489999999999</v>
+      </c>
+      <c r="G143" s="46">
+        <v>17.313880000000001</v>
+      </c>
+      <c r="H143" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="I143" s="45"/>
+      <c r="J143" s="45"/>
+      <c r="K143" s="45"/>
+      <c r="L143" s="48"/>
+      <c r="M143" s="48"/>
+      <c r="N143" s="48"/>
+      <c r="O143" s="48"/>
+      <c r="P143" s="48"/>
+      <c r="Q143" s="48"/>
+      <c r="R143" s="48"/>
+      <c r="S143" s="48"/>
+      <c r="T143" s="48"/>
+    </row>
+    <row r="144" spans="1:20" ht="14">
+      <c r="A144" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="B144" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C143" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="D143" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="E143" s="48">
-        <v>1.962904</v>
-      </c>
-      <c r="F143" s="48">
-        <v>33.985489999999999</v>
-      </c>
-      <c r="G143" s="48">
-        <v>17.313880000000001</v>
-      </c>
-      <c r="H143" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="I143" s="47"/>
-      <c r="J143" s="47"/>
-      <c r="K143" s="47"/>
-      <c r="L143" s="50"/>
-      <c r="M143" s="50"/>
-      <c r="N143" s="50"/>
-      <c r="O143" s="50"/>
-      <c r="P143" s="50"/>
-      <c r="Q143" s="50"/>
-      <c r="R143" s="50"/>
-      <c r="S143" s="50"/>
-      <c r="T143" s="50"/>
-    </row>
-    <row r="144" spans="1:20" ht="14">
-      <c r="A144" s="47">
-        <v>98</v>
-      </c>
-      <c r="B144" s="10" t="s">
+      <c r="C144" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="D144" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="E144" s="46">
+        <v>2.9333999999999999E-2</v>
+      </c>
+      <c r="F144" s="46">
+        <v>0.658725</v>
+      </c>
+      <c r="G144" s="46">
+        <v>22.456009999999999</v>
+      </c>
+      <c r="H144" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="I144" s="45"/>
+      <c r="J144" s="45"/>
+      <c r="K144" s="45"/>
+      <c r="L144" s="48"/>
+      <c r="M144" s="48"/>
+      <c r="N144" s="48"/>
+      <c r="O144" s="48"/>
+      <c r="P144" s="48"/>
+      <c r="Q144" s="48"/>
+      <c r="R144" s="48"/>
+      <c r="S144" s="48"/>
+      <c r="T144" s="48"/>
+    </row>
+    <row r="145" spans="1:20" ht="14">
+      <c r="A145" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="B145" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C144" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="D144" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="E144" s="48">
-        <v>2.9333999999999999E-2</v>
-      </c>
-      <c r="F144" s="48">
-        <v>0.658725</v>
-      </c>
-      <c r="G144" s="48">
-        <v>22.456009999999999</v>
-      </c>
-      <c r="H144" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="I144" s="47"/>
-      <c r="J144" s="47"/>
-      <c r="K144" s="47"/>
-      <c r="L144" s="50"/>
-      <c r="M144" s="50"/>
-      <c r="N144" s="50"/>
-      <c r="O144" s="50"/>
-      <c r="P144" s="50"/>
-      <c r="Q144" s="50"/>
-      <c r="R144" s="50"/>
-      <c r="S144" s="50"/>
-      <c r="T144" s="50"/>
-    </row>
-    <row r="145" spans="1:20" ht="14">
-      <c r="A145" s="47">
-        <v>99</v>
-      </c>
-      <c r="B145" s="10" t="s">
+      <c r="C145" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="D145" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="E145" s="46">
+        <v>3.6919E-2</v>
+      </c>
+      <c r="F145" s="46">
+        <v>0.72343900000000005</v>
+      </c>
+      <c r="G145" s="46">
+        <v>19.59507</v>
+      </c>
+      <c r="H145" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="I145" s="45"/>
+      <c r="J145" s="45"/>
+      <c r="K145" s="45"/>
+      <c r="L145" s="48"/>
+      <c r="M145" s="48"/>
+      <c r="N145" s="48"/>
+      <c r="O145" s="48"/>
+      <c r="P145" s="48"/>
+      <c r="Q145" s="48"/>
+      <c r="R145" s="48"/>
+      <c r="S145" s="48"/>
+      <c r="T145" s="48"/>
+    </row>
+    <row r="146" spans="1:20" ht="13">
+      <c r="A146" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="B146" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C145" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="D145" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="E145" s="48">
-        <v>3.6919E-2</v>
-      </c>
-      <c r="F145" s="48">
-        <v>0.72343900000000005</v>
-      </c>
-      <c r="G145" s="48">
-        <v>19.59507</v>
-      </c>
-      <c r="H145" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="I145" s="47"/>
-      <c r="J145" s="47"/>
-      <c r="K145" s="47"/>
-      <c r="L145" s="50"/>
-      <c r="M145" s="50"/>
-      <c r="N145" s="50"/>
-      <c r="O145" s="50"/>
-      <c r="P145" s="50"/>
-      <c r="Q145" s="50"/>
-      <c r="R145" s="50"/>
-      <c r="S145" s="50"/>
-      <c r="T145" s="50"/>
-    </row>
-    <row r="146" spans="1:20" ht="13">
-      <c r="A146" s="47">
-        <v>100</v>
-      </c>
-      <c r="B146" s="10" t="s">
-        <v>111</v>
-      </c>
       <c r="C146" s="28" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D146" s="28">
         <v>2</v>
       </c>
-      <c r="E146" s="48">
+      <c r="E146" s="46">
         <v>1.0363000000000001E-2</v>
       </c>
-      <c r="F146" s="48">
+      <c r="F146" s="46">
         <v>0.10827299999999999</v>
       </c>
-      <c r="G146" s="48">
+      <c r="G146" s="46">
         <v>10.448079999999999</v>
       </c>
-      <c r="H146" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="I146" s="47"/>
-      <c r="J146" s="47"/>
-      <c r="K146" s="47"/>
-      <c r="L146" s="49"/>
-      <c r="M146" s="49"/>
-      <c r="N146" s="49"/>
-      <c r="O146" s="49"/>
-      <c r="P146" s="49"/>
-      <c r="Q146" s="49"/>
-      <c r="R146" s="49"/>
-      <c r="S146" s="49"/>
-      <c r="T146" s="49"/>
+      <c r="H146" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="I146" s="45"/>
+      <c r="J146" s="45"/>
+      <c r="K146" s="45"/>
+      <c r="L146" s="47"/>
+      <c r="M146" s="47"/>
+      <c r="N146" s="47"/>
+      <c r="O146" s="47"/>
+      <c r="P146" s="47"/>
+      <c r="Q146" s="47"/>
+      <c r="R146" s="47"/>
+      <c r="S146" s="47"/>
+      <c r="T146" s="47"/>
     </row>
     <row r="147" spans="1:20" ht="13">
-      <c r="A147" s="47">
-        <v>101</v>
+      <c r="A147" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C147" s="28" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D147" s="28">
         <v>2</v>
       </c>
-      <c r="E147" s="48">
+      <c r="E147" s="46">
         <v>9.3279999999999995E-3</v>
       </c>
-      <c r="F147" s="48">
+      <c r="F147" s="46">
         <v>3.9065999999999997E-2</v>
       </c>
-      <c r="G147" s="48">
+      <c r="G147" s="46">
         <v>4.1879819999999999</v>
       </c>
-      <c r="H147" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="I147" s="47"/>
-      <c r="J147" s="47"/>
-      <c r="K147" s="47"/>
-      <c r="L147" s="49"/>
-      <c r="M147" s="49"/>
-      <c r="N147" s="49"/>
-      <c r="O147" s="49"/>
-      <c r="P147" s="49"/>
-      <c r="Q147" s="49"/>
-      <c r="R147" s="49"/>
-      <c r="S147" s="49"/>
-      <c r="T147" s="49"/>
+      <c r="H147" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="I147" s="45"/>
+      <c r="J147" s="45"/>
+      <c r="K147" s="45"/>
+      <c r="L147" s="47"/>
+      <c r="M147" s="47"/>
+      <c r="N147" s="47"/>
+      <c r="O147" s="47"/>
+      <c r="P147" s="47"/>
+      <c r="Q147" s="47"/>
+      <c r="R147" s="47"/>
+      <c r="S147" s="47"/>
+      <c r="T147" s="47"/>
     </row>
     <row r="148" spans="1:20" ht="13">
-      <c r="A148" s="47" t="s">
-        <v>126</v>
+      <c r="A148" s="45" t="s">
+        <v>125</v>
       </c>
       <c r="B148" s="11"/>
       <c r="C148" s="21"/>
       <c r="D148" s="21"/>
-      <c r="E148" s="48">
+      <c r="E148" s="46">
         <v>1.348508</v>
       </c>
-      <c r="F148" s="48">
+      <c r="F148" s="46">
         <v>51.532269999999997</v>
       </c>
-      <c r="G148" s="48">
+      <c r="G148" s="46">
         <v>38.214280000000002</v>
       </c>
-      <c r="H148" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="I148" s="47"/>
-      <c r="J148" s="47"/>
-      <c r="K148" s="47"/>
-      <c r="L148" s="49"/>
-      <c r="M148" s="49"/>
-      <c r="N148" s="49"/>
-      <c r="O148" s="49"/>
-      <c r="P148" s="49"/>
-      <c r="Q148" s="49"/>
-      <c r="R148" s="49"/>
-      <c r="S148" s="49"/>
-      <c r="T148" s="49"/>
+      <c r="H148" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="I148" s="45"/>
+      <c r="J148" s="45"/>
+      <c r="K148" s="45"/>
+      <c r="L148" s="47"/>
+      <c r="M148" s="47"/>
+      <c r="N148" s="47"/>
+      <c r="O148" s="47"/>
+      <c r="P148" s="47"/>
+      <c r="Q148" s="47"/>
+      <c r="R148" s="47"/>
+      <c r="S148" s="47"/>
+      <c r="T148" s="47"/>
     </row>
     <row r="149" spans="1:20" ht="13">
-      <c r="A149" s="49"/>
+      <c r="A149" s="47"/>
       <c r="B149" s="12"/>
       <c r="C149" s="22"/>
       <c r="D149" s="22"/>
       <c r="E149" s="12"/>
       <c r="F149" s="12"/>
       <c r="G149" s="12"/>
-      <c r="H149" s="49"/>
-      <c r="I149" s="49"/>
-      <c r="J149" s="49"/>
-      <c r="K149" s="49"/>
-      <c r="L149" s="49"/>
-      <c r="M149" s="49"/>
-      <c r="N149" s="49"/>
-      <c r="O149" s="49"/>
-      <c r="P149" s="49"/>
-      <c r="Q149" s="49"/>
-      <c r="R149" s="49"/>
-      <c r="S149" s="49"/>
-      <c r="T149" s="49"/>
+      <c r="H149" s="47"/>
+      <c r="I149" s="47"/>
+      <c r="J149" s="47"/>
+      <c r="K149" s="47"/>
+      <c r="L149" s="47"/>
+      <c r="M149" s="47"/>
+      <c r="N149" s="47"/>
+      <c r="O149" s="47"/>
+      <c r="P149" s="47"/>
+      <c r="Q149" s="47"/>
+      <c r="R149" s="47"/>
+      <c r="S149" s="47"/>
+      <c r="T149" s="47"/>
     </row>
     <row r="150" spans="1:20" ht="13">
-      <c r="A150" s="49"/>
+      <c r="A150" s="47"/>
       <c r="B150" s="12"/>
       <c r="C150" s="22"/>
       <c r="D150" s="22"/>
       <c r="E150" s="12"/>
       <c r="F150" s="12"/>
       <c r="G150" s="12"/>
-      <c r="H150" s="49"/>
-      <c r="I150" s="49"/>
-      <c r="J150" s="49"/>
-      <c r="K150" s="49"/>
-      <c r="L150" s="49"/>
-      <c r="M150" s="49"/>
-      <c r="N150" s="49"/>
-      <c r="O150" s="49"/>
-      <c r="P150" s="49"/>
-      <c r="Q150" s="49"/>
-      <c r="R150" s="49"/>
-      <c r="S150" s="49"/>
-      <c r="T150" s="49"/>
+      <c r="H150" s="47"/>
+      <c r="I150" s="47"/>
+      <c r="J150" s="47"/>
+      <c r="K150" s="47"/>
+      <c r="L150" s="47"/>
+      <c r="M150" s="47"/>
+      <c r="N150" s="47"/>
+      <c r="O150" s="47"/>
+      <c r="P150" s="47"/>
+      <c r="Q150" s="47"/>
+      <c r="R150" s="47"/>
+      <c r="S150" s="47"/>
+      <c r="T150" s="47"/>
     </row>
     <row r="151" spans="1:20" ht="13">
-      <c r="A151" s="49"/>
+      <c r="A151" s="47"/>
       <c r="B151" s="12"/>
       <c r="C151" s="22"/>
       <c r="D151" s="22"/>
       <c r="E151" s="12"/>
       <c r="F151" s="12"/>
       <c r="G151" s="12"/>
-      <c r="H151" s="49"/>
-      <c r="I151" s="49"/>
-      <c r="J151" s="49"/>
-      <c r="K151" s="49"/>
-      <c r="L151" s="49"/>
-      <c r="M151" s="49"/>
-      <c r="N151" s="49"/>
-      <c r="O151" s="49"/>
-      <c r="P151" s="49"/>
-      <c r="Q151" s="49"/>
-      <c r="R151" s="49"/>
-      <c r="S151" s="49"/>
-      <c r="T151" s="49"/>
+      <c r="H151" s="47"/>
+      <c r="I151" s="47"/>
+      <c r="J151" s="47"/>
+      <c r="K151" s="47"/>
+      <c r="L151" s="47"/>
+      <c r="M151" s="47"/>
+      <c r="N151" s="47"/>
+      <c r="O151" s="47"/>
+      <c r="P151" s="47"/>
+      <c r="Q151" s="47"/>
+      <c r="R151" s="47"/>
+      <c r="S151" s="47"/>
+      <c r="T151" s="47"/>
     </row>
     <row r="152" spans="1:20" ht="13">
-      <c r="A152" s="49"/>
+      <c r="A152" s="47"/>
       <c r="B152" s="12"/>
       <c r="C152" s="22"/>
       <c r="D152" s="22"/>
       <c r="E152" s="12"/>
       <c r="F152" s="12"/>
       <c r="G152" s="12"/>
-      <c r="H152" s="49"/>
-      <c r="I152" s="49"/>
-      <c r="J152" s="49"/>
-      <c r="K152" s="49"/>
-      <c r="L152" s="49"/>
-      <c r="M152" s="49"/>
-      <c r="N152" s="49"/>
-      <c r="O152" s="49"/>
-      <c r="P152" s="49"/>
-      <c r="Q152" s="49"/>
-      <c r="R152" s="49"/>
-      <c r="S152" s="49"/>
-      <c r="T152" s="49"/>
+      <c r="H152" s="47"/>
+      <c r="I152" s="47"/>
+      <c r="J152" s="47"/>
+      <c r="K152" s="47"/>
+      <c r="L152" s="47"/>
+      <c r="M152" s="47"/>
+      <c r="N152" s="47"/>
+      <c r="O152" s="47"/>
+      <c r="P152" s="47"/>
+      <c r="Q152" s="47"/>
+      <c r="R152" s="47"/>
+      <c r="S152" s="47"/>
+      <c r="T152" s="47"/>
     </row>
     <row r="153" spans="1:20" ht="13">
-      <c r="A153" s="49"/>
+      <c r="A153" s="47"/>
       <c r="B153" s="12"/>
       <c r="C153" s="22"/>
       <c r="D153" s="22"/>
       <c r="E153" s="12"/>
       <c r="F153" s="12"/>
       <c r="G153" s="12"/>
-      <c r="H153" s="49"/>
-      <c r="I153" s="49"/>
-      <c r="J153" s="49"/>
-      <c r="K153" s="49"/>
-      <c r="L153" s="49"/>
-      <c r="M153" s="49"/>
-      <c r="N153" s="49"/>
-      <c r="O153" s="49"/>
-      <c r="P153" s="49"/>
-      <c r="Q153" s="49"/>
-      <c r="R153" s="49"/>
-      <c r="S153" s="49"/>
-      <c r="T153" s="49"/>
+      <c r="H153" s="47"/>
+      <c r="I153" s="47"/>
+      <c r="J153" s="47"/>
+      <c r="K153" s="47"/>
+      <c r="L153" s="47"/>
+      <c r="M153" s="47"/>
+      <c r="N153" s="47"/>
+      <c r="O153" s="47"/>
+      <c r="P153" s="47"/>
+      <c r="Q153" s="47"/>
+      <c r="R153" s="47"/>
+      <c r="S153" s="47"/>
+      <c r="T153" s="47"/>
     </row>
     <row r="154" spans="1:20" ht="13">
       <c r="B154" s="13"/>

--- a/data/processed/CN.xlsx
+++ b/data/processed/CN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/penninoa/Documents/VT/Data/MyData/Soil_Analyses/data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A2B993-2AE8-0E44-B81B-437B820AF812}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADA05C3-C22D-014B-B634-643D05957051}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7940" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="194">
   <si>
     <t>CNRatio</t>
   </si>
@@ -217,27 +217,6 @@
     <t>V2.1_E4</t>
   </si>
   <si>
-    <t>W3.1_Oa</t>
-  </si>
-  <si>
-    <t>W3.1_A</t>
-  </si>
-  <si>
-    <t>W3.1_Bhs1</t>
-  </si>
-  <si>
-    <t>W3.1_Bhs2.1</t>
-  </si>
-  <si>
-    <t>W3.1_Bhs2.2</t>
-  </si>
-  <si>
-    <t>W3.1_Bhs3.1</t>
-  </si>
-  <si>
-    <t>W3.1_Bhs3.2</t>
-  </si>
-  <si>
     <t>W4.1_Oa</t>
   </si>
   <si>
@@ -532,9 +511,6 @@
     <t>42_4_V4.1</t>
   </si>
   <si>
-    <t>42_4_V4.2</t>
-  </si>
-  <si>
     <t>D9</t>
   </si>
   <si>
@@ -562,12 +538,6 @@
     <t>D5</t>
   </si>
   <si>
-    <t>42_3_V3.2</t>
-  </si>
-  <si>
-    <t>42_3_V3.3</t>
-  </si>
-  <si>
     <t>D11</t>
   </si>
   <si>
@@ -580,12 +550,6 @@
     <t>42_4_d1</t>
   </si>
   <si>
-    <t>86_2_W2.1</t>
-  </si>
-  <si>
-    <t>86_3_W3.1</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -611,6 +575,33 @@
   </si>
   <si>
     <t>Cd</t>
+  </si>
+  <si>
+    <t>W3.2_Oa</t>
+  </si>
+  <si>
+    <t>W3.2_A</t>
+  </si>
+  <si>
+    <t>W3.2_Bhs1</t>
+  </si>
+  <si>
+    <t>W3.2_Bhs2.1</t>
+  </si>
+  <si>
+    <t>W3.2_Bhs2.2</t>
+  </si>
+  <si>
+    <t>W3.2_Bhs3.1</t>
+  </si>
+  <si>
+    <t>W3.2_Bhs3.2</t>
+  </si>
+  <si>
+    <t>86_3_W3.2</t>
+  </si>
+  <si>
+    <t>86_2_W2.2</t>
   </si>
 </sst>
 </file>
@@ -1119,8 +1110,8 @@
   </sheetPr>
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E154" sqref="E154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1130,28 +1121,28 @@
   <sheetData>
     <row r="1" spans="1:20" s="50" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="49" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="I1" s="30"/>
       <c r="J1" s="30"/>
@@ -1415,16 +1406,16 @@
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
       <c r="A10" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E10" s="35">
         <v>1.3023039999999999</v>
@@ -1444,16 +1435,16 @@
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1">
       <c r="A11" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E11" s="35">
         <v>0.98538400000000004</v>
@@ -1473,16 +1464,16 @@
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1">
       <c r="A12" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E12" s="35">
         <v>2.9635000000000002E-2</v>
@@ -1502,16 +1493,16 @@
     </row>
     <row r="13" spans="1:20" ht="15.75" customHeight="1">
       <c r="A13" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E13" s="35">
         <v>1.0011890000000001</v>
@@ -1531,16 +1522,16 @@
     </row>
     <row r="14" spans="1:20" ht="15.75" customHeight="1">
       <c r="A14" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E14" s="35">
         <v>0.28999399999999997</v>
@@ -1560,16 +1551,16 @@
     </row>
     <row r="15" spans="1:20" ht="15.75" customHeight="1">
       <c r="A15" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E15" s="35">
         <v>0.22118299999999999</v>
@@ -1589,16 +1580,16 @@
     </row>
     <row r="16" spans="1:20" ht="15.75" customHeight="1">
       <c r="A16" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E16" s="35">
         <v>0.23441200000000001</v>
@@ -1618,16 +1609,16 @@
     </row>
     <row r="17" spans="1:20" ht="15.75" customHeight="1">
       <c r="A17" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E17" s="35">
         <v>0.26178000000000001</v>
@@ -1647,16 +1638,16 @@
     </row>
     <row r="18" spans="1:20" ht="15.75" customHeight="1">
       <c r="A18" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E18" s="35">
         <v>0.14739099999999999</v>
@@ -1676,16 +1667,16 @@
     </row>
     <row r="19" spans="1:20" ht="15.75" customHeight="1">
       <c r="A19" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E19" s="35">
         <v>0.39160600000000001</v>
@@ -1705,16 +1696,16 @@
     </row>
     <row r="20" spans="1:20" ht="15.75" customHeight="1">
       <c r="A20" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E20" s="35">
         <v>0.29821199999999998</v>
@@ -1734,16 +1725,16 @@
     </row>
     <row r="21" spans="1:20" ht="15.75" customHeight="1">
       <c r="A21" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E21" s="35">
         <v>0.152143</v>
@@ -1763,16 +1754,16 @@
     </row>
     <row r="22" spans="1:20" ht="15.75" customHeight="1">
       <c r="A22" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E22" s="35">
         <v>0.14929700000000001</v>
@@ -1792,16 +1783,16 @@
     </row>
     <row r="23" spans="1:20" ht="15.75" customHeight="1">
       <c r="A23" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E23" s="35">
         <v>1.8598049999999999</v>
@@ -1821,16 +1812,16 @@
     </row>
     <row r="24" spans="1:20" ht="15.75" customHeight="1">
       <c r="A24" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E24" s="35">
         <v>0.15348999999999999</v>
@@ -1850,16 +1841,16 @@
     </row>
     <row r="25" spans="1:20" ht="15.75" customHeight="1">
       <c r="A25" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E25" s="35">
         <v>1.096479</v>
@@ -1879,16 +1870,16 @@
     </row>
     <row r="26" spans="1:20" ht="15.75" customHeight="1">
       <c r="A26" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E26" s="35">
         <v>0.40946199999999999</v>
@@ -1908,16 +1899,16 @@
     </row>
     <row r="27" spans="1:20" ht="15.75" customHeight="1">
       <c r="A27" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E27" s="35">
         <v>8.3263000000000004E-2</v>
@@ -1937,16 +1928,16 @@
     </row>
     <row r="28" spans="1:20" ht="15.75" customHeight="1">
       <c r="A28" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E28" s="35">
         <v>0.29094199999999998</v>
@@ -1998,16 +1989,16 @@
     </row>
     <row r="30" spans="1:20" ht="15.75" customHeight="1">
       <c r="A30" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E30" s="35">
         <v>0.202262</v>
@@ -2027,16 +2018,16 @@
     </row>
     <row r="31" spans="1:20" ht="15.75" customHeight="1">
       <c r="A31" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E31" s="35">
         <v>1.8587370000000001</v>
@@ -2056,16 +2047,16 @@
     </row>
     <row r="32" spans="1:20" ht="15.75" customHeight="1">
       <c r="A32" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E32" s="35">
         <v>1.2133E-2</v>
@@ -2085,16 +2076,16 @@
     </row>
     <row r="33" spans="1:20" ht="15.75" customHeight="1">
       <c r="A33" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E33" s="35">
         <v>1.7394559999999999</v>
@@ -2114,16 +2105,16 @@
     </row>
     <row r="34" spans="1:20" ht="15.75" customHeight="1">
       <c r="A34" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E34" s="35">
         <v>1.0957699999999999</v>
@@ -2143,16 +2134,16 @@
     </row>
     <row r="35" spans="1:20" ht="15.75" customHeight="1">
       <c r="A35" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E35" s="35">
         <v>0.21438299999999999</v>
@@ -2172,16 +2163,16 @@
     </row>
     <row r="36" spans="1:20" ht="15.75" customHeight="1">
       <c r="A36" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E36" s="35">
         <v>3.8591E-2</v>
@@ -2201,16 +2192,16 @@
     </row>
     <row r="37" spans="1:20" ht="15.75" customHeight="1">
       <c r="A37" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E37" s="35">
         <v>1.0003709999999999</v>
@@ -2230,16 +2221,16 @@
     </row>
     <row r="38" spans="1:20" ht="15.75" customHeight="1">
       <c r="A38" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E38" s="35">
         <v>6.0783999999999998E-2</v>
@@ -2259,16 +2250,16 @@
     </row>
     <row r="39" spans="1:20" ht="15.75" customHeight="1">
       <c r="A39" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E39" s="35">
         <v>0.37709900000000002</v>
@@ -2288,16 +2279,16 @@
     </row>
     <row r="40" spans="1:20" ht="15.75" customHeight="1">
       <c r="A40" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E40" s="35">
         <v>0.20647399999999999</v>
@@ -2317,16 +2308,16 @@
     </row>
     <row r="41" spans="1:20" ht="15.75" customHeight="1">
       <c r="A41" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E41" s="35">
         <v>0.185748</v>
@@ -2482,16 +2473,16 @@
     </row>
     <row r="46" spans="1:20" ht="15.75" customHeight="1">
       <c r="A46" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E46" s="35">
         <v>0.60217900000000002</v>
@@ -2511,16 +2502,16 @@
     </row>
     <row r="47" spans="1:20" ht="15.75" customHeight="1">
       <c r="A47" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E47" s="35">
         <v>0.11844</v>
@@ -2540,16 +2531,16 @@
     </row>
     <row r="48" spans="1:20" ht="13">
       <c r="A48" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E48" s="35">
         <v>0.46168399999999998</v>
@@ -2569,16 +2560,16 @@
     </row>
     <row r="49" spans="1:20" ht="13">
       <c r="A49" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E49" s="35">
         <v>0.32405</v>
@@ -2630,16 +2621,16 @@
     </row>
     <row r="51" spans="1:20" ht="13">
       <c r="A51" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E51" s="35">
         <v>0.31304199999999999</v>
@@ -2659,16 +2650,16 @@
     </row>
     <row r="52" spans="1:20" ht="13">
       <c r="A52" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E52" s="35">
         <v>0.20927899999999999</v>
@@ -2688,16 +2679,16 @@
     </row>
     <row r="53" spans="1:20" ht="13">
       <c r="A53" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E53" s="35">
         <v>0.10570499999999999</v>
@@ -2717,16 +2708,16 @@
     </row>
     <row r="54" spans="1:20" ht="13">
       <c r="A54" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E54" s="35">
         <v>4.7220999999999999E-2</v>
@@ -2746,16 +2737,16 @@
     </row>
     <row r="55" spans="1:20" ht="13">
       <c r="A55" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C55" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D55" s="24" t="s">
         <v>150</v>
-      </c>
-      <c r="D55" s="24" t="s">
-        <v>157</v>
       </c>
       <c r="E55" s="35">
         <v>9.6839999999999999E-3</v>
@@ -2775,16 +2766,16 @@
     </row>
     <row r="56" spans="1:20" ht="13">
       <c r="A56" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E56" s="35">
         <v>9.1739999999999999E-3</v>
@@ -2804,16 +2795,16 @@
     </row>
     <row r="57" spans="1:20" ht="13">
       <c r="A57" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E57" s="35">
         <v>3.1909999999999998E-3</v>
@@ -2833,16 +2824,16 @@
     </row>
     <row r="58" spans="1:20" ht="14">
       <c r="A58" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E58" s="35">
         <v>1.2753779999999999</v>
@@ -2862,16 +2853,16 @@
     </row>
     <row r="59" spans="1:20" ht="14">
       <c r="A59" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C59" s="27" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E59" s="35">
         <v>9.6032000000000006E-2</v>
@@ -2891,16 +2882,16 @@
     </row>
     <row r="60" spans="1:20" ht="14">
       <c r="A60" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C60" s="27" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E60" s="35">
         <v>6.8475999999999995E-2</v>
@@ -2920,16 +2911,16 @@
     </row>
     <row r="61" spans="1:20" ht="14">
       <c r="A61" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E61" s="35">
         <v>2.9576000000000002E-2</v>
@@ -2949,16 +2940,16 @@
     </row>
     <row r="62" spans="1:20" ht="13">
       <c r="A62" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E62" s="38">
         <v>7.6608999999999997E-2</v>
@@ -2987,16 +2978,16 @@
     </row>
     <row r="63" spans="1:20" ht="13">
       <c r="A63" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E63" s="35">
         <v>7.7010999999999996E-2</v>
@@ -3016,16 +3007,16 @@
     </row>
     <row r="64" spans="1:20" ht="13">
       <c r="A64" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E64" s="38">
         <v>0.43907299999999999</v>
@@ -3054,16 +3045,16 @@
     </row>
     <row r="65" spans="1:20" ht="13">
       <c r="A65" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E65" s="35">
         <v>4.6856000000000002E-2</v>
@@ -3083,16 +3074,16 @@
     </row>
     <row r="66" spans="1:20" ht="13">
       <c r="A66" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>64</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E66" s="35">
         <v>4.2376999999999998E-2</v>
@@ -3112,16 +3103,16 @@
     </row>
     <row r="67" spans="1:20" ht="14">
       <c r="A67" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="C67" s="29" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E67" s="35">
         <v>1.8694280000000001</v>
@@ -3141,16 +3132,16 @@
     </row>
     <row r="68" spans="1:20" ht="14">
       <c r="A68" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>66</v>
+        <v>186</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E68" s="35">
         <v>0.512992</v>
@@ -3170,16 +3161,16 @@
     </row>
     <row r="69" spans="1:20" ht="14">
       <c r="A69" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>67</v>
+        <v>187</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D69" s="29" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E69" s="35">
         <v>0.398926</v>
@@ -3199,16 +3190,16 @@
     </row>
     <row r="70" spans="1:20" ht="14">
       <c r="A70" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>68</v>
+        <v>188</v>
       </c>
       <c r="C70" s="29" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E70" s="35">
         <v>0.28320400000000001</v>
@@ -3260,16 +3251,16 @@
     </row>
     <row r="72" spans="1:20" ht="14">
       <c r="A72" s="36" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>69</v>
+        <v>189</v>
       </c>
       <c r="C72" s="29" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E72" s="35">
         <v>0.29124499999999998</v>
@@ -3289,16 +3280,16 @@
     </row>
     <row r="73" spans="1:20" ht="14">
       <c r="A73" s="36" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="C73" s="29" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D73" s="16" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E73" s="35">
         <v>0.10406600000000001</v>
@@ -3318,16 +3309,16 @@
     </row>
     <row r="74" spans="1:20" ht="14">
       <c r="A74" s="36" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>71</v>
+        <v>191</v>
       </c>
       <c r="C74" s="29" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D74" s="16" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E74" s="35">
         <v>0.10985499999999999</v>
@@ -3347,16 +3338,16 @@
     </row>
     <row r="75" spans="1:20" ht="13">
       <c r="A75" s="36" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D75" s="24" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E75" s="35">
         <v>1.50145</v>
@@ -3376,16 +3367,16 @@
     </row>
     <row r="76" spans="1:20" ht="13">
       <c r="A76" s="36" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D76" s="24" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E76" s="35">
         <v>6.1877000000000001E-2</v>
@@ -3405,16 +3396,16 @@
     </row>
     <row r="77" spans="1:20" ht="13">
       <c r="A77" s="36" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E77" s="35">
         <v>0.243477</v>
@@ -3434,16 +3425,16 @@
     </row>
     <row r="78" spans="1:20" ht="13">
       <c r="A78" s="36" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D78" s="24" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E78" s="35">
         <v>0.118811</v>
@@ -3463,16 +3454,16 @@
     </row>
     <row r="79" spans="1:20" ht="13">
       <c r="A79" s="36" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D79" s="24" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E79" s="35">
         <v>0.14069799999999999</v>
@@ -3492,16 +3483,16 @@
     </row>
     <row r="80" spans="1:20" ht="13">
       <c r="A80" s="36" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D80" s="24" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E80" s="35">
         <v>0.16771900000000001</v>
@@ -3521,16 +3512,16 @@
     </row>
     <row r="81" spans="1:20" ht="13">
       <c r="A81" s="36" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D81" s="24" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E81" s="35">
         <v>0.105418</v>
@@ -3550,16 +3541,16 @@
     </row>
     <row r="82" spans="1:20" ht="13">
       <c r="A82" s="36" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C82" s="24" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D82" s="24" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E82" s="35">
         <v>4.981E-2</v>
@@ -3579,16 +3570,16 @@
     </row>
     <row r="83" spans="1:20" ht="13">
       <c r="A83" s="36" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D83" s="24" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E83" s="35">
         <v>4.3857E-2</v>
@@ -3608,16 +3599,16 @@
     </row>
     <row r="84" spans="1:20" ht="13">
       <c r="A84" s="36" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C84" s="24" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D84" s="24" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E84" s="35">
         <v>2.0705000000000001E-2</v>
@@ -3637,16 +3628,16 @@
     </row>
     <row r="85" spans="1:20" ht="13">
       <c r="A85" s="36" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D85" s="24" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E85" s="35">
         <v>0.90193299999999998</v>
@@ -3666,16 +3657,16 @@
     </row>
     <row r="86" spans="1:20" ht="13">
       <c r="A86" s="36" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C86" s="24" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D86" s="24" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E86" s="35">
         <v>7.0206000000000005E-2</v>
@@ -3695,16 +3686,16 @@
     </row>
     <row r="87" spans="1:20" ht="13">
       <c r="A87" s="36" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C87" s="24" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D87" s="24" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E87" s="35">
         <v>0.15401599999999999</v>
@@ -3724,16 +3715,16 @@
     </row>
     <row r="88" spans="1:20" ht="13">
       <c r="A88" s="36" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C88" s="24" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D88" s="24" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E88" s="35">
         <v>0.22110099999999999</v>
@@ -3753,16 +3744,16 @@
     </row>
     <row r="89" spans="1:20" ht="13">
       <c r="A89" s="36" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C89" s="24" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D89" s="24" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E89" s="35">
         <v>0.21507799999999999</v>
@@ -3782,16 +3773,16 @@
     </row>
     <row r="90" spans="1:20" ht="13">
       <c r="A90" s="36" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C90" s="24" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D90" s="24" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E90" s="35">
         <v>0.18893699999999999</v>
@@ -3811,16 +3802,16 @@
     </row>
     <row r="91" spans="1:20" ht="13">
       <c r="A91" s="36" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D91" s="24" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E91" s="35">
         <v>0.16860900000000001</v>
@@ -3872,16 +3863,16 @@
     </row>
     <row r="93" spans="1:20" ht="13">
       <c r="A93" s="36" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C93" s="24" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D93" s="24" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E93" s="35">
         <v>8.8525000000000006E-2</v>
@@ -3901,16 +3892,16 @@
     </row>
     <row r="94" spans="1:20" ht="13">
       <c r="A94" s="36" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C94" s="24" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D94" s="24" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="E94" s="35">
         <v>1.2055E-2</v>
@@ -3930,16 +3921,16 @@
     </row>
     <row r="95" spans="1:20" ht="13">
       <c r="A95" s="36" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D95" s="16" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E95" s="35">
         <v>8.2380000000000005E-3</v>
@@ -3959,16 +3950,16 @@
     </row>
     <row r="96" spans="1:20" ht="13">
       <c r="A96" s="36" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E96" s="35">
         <v>7.9159999999999994E-3</v>
@@ -3988,16 +3979,16 @@
     </row>
     <row r="97" spans="1:20" ht="13">
       <c r="A97" s="36" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C97" s="24" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E97" s="35">
         <v>0.52591699999999997</v>
@@ -4017,16 +4008,16 @@
     </row>
     <row r="98" spans="1:20" ht="13">
       <c r="A98" s="36" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C98" s="24" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D98" s="24" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E98" s="35">
         <v>5.509E-2</v>
@@ -4046,16 +4037,16 @@
     </row>
     <row r="99" spans="1:20" ht="13">
       <c r="A99" s="36" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C99" s="24" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D99" s="24" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E99" s="35">
         <v>0.26409100000000002</v>
@@ -4075,16 +4066,16 @@
     </row>
     <row r="100" spans="1:20" ht="13">
       <c r="A100" s="36" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C100" s="24" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D100" s="24" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E100" s="35">
         <v>0.187884</v>
@@ -4104,16 +4095,16 @@
     </row>
     <row r="101" spans="1:20" ht="13">
       <c r="A101" s="36" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C101" s="24" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D101" s="24" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E101" s="35">
         <v>0.228905</v>
@@ -4133,16 +4124,16 @@
     </row>
     <row r="102" spans="1:20" ht="13">
       <c r="A102" s="36" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C102" s="24" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E102" s="35">
         <v>0.203293</v>
@@ -4165,7 +4156,7 @@
         <v>90</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C103" s="19"/>
       <c r="D103" s="19"/>
@@ -4182,7 +4173,7 @@
         <v>7</v>
       </c>
       <c r="I103" s="51" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J103" s="52"/>
       <c r="K103" s="52"/>
@@ -4201,7 +4192,7 @@
         <v>91</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C104" s="19"/>
       <c r="D104" s="19"/>
@@ -4218,7 +4209,7 @@
         <v>7</v>
       </c>
       <c r="I104" s="51" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J104" s="52"/>
       <c r="K104" s="52"/>
@@ -4237,7 +4228,7 @@
         <v>92</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C105" s="19"/>
       <c r="D105" s="19"/>
@@ -4254,7 +4245,7 @@
         <v>7</v>
       </c>
       <c r="I105" s="51" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J105" s="52"/>
       <c r="K105" s="52"/>
@@ -4273,7 +4264,7 @@
         <v>93</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C106" s="19"/>
       <c r="D106" s="19"/>
@@ -4290,7 +4281,7 @@
         <v>7</v>
       </c>
       <c r="I106" s="51" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J106" s="52"/>
       <c r="K106" s="52"/>
@@ -4309,7 +4300,7 @@
         <v>94</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C107" s="19"/>
       <c r="D107" s="19"/>
@@ -4326,7 +4317,7 @@
         <v>7</v>
       </c>
       <c r="I107" s="51" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J107" s="52"/>
       <c r="K107" s="52"/>
@@ -4345,7 +4336,7 @@
         <v>95</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C108" s="19"/>
       <c r="D108" s="19"/>
@@ -4362,7 +4353,7 @@
         <v>7</v>
       </c>
       <c r="I108" s="51" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J108" s="52"/>
       <c r="K108" s="52"/>
@@ -4381,7 +4372,7 @@
         <v>96</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C109" s="19"/>
       <c r="D109" s="19"/>
@@ -4398,7 +4389,7 @@
         <v>7</v>
       </c>
       <c r="I109" s="51" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J109" s="52"/>
       <c r="K109" s="52"/>
@@ -4417,7 +4408,7 @@
         <v>97</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C110" s="19"/>
       <c r="D110" s="19"/>
@@ -4434,7 +4425,7 @@
         <v>7</v>
       </c>
       <c r="I110" s="51" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J110" s="52"/>
       <c r="K110" s="52"/>
@@ -4453,7 +4444,7 @@
         <v>98</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C111" s="19"/>
       <c r="D111" s="19"/>
@@ -4470,7 +4461,7 @@
         <v>7</v>
       </c>
       <c r="I111" s="51" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J111" s="52"/>
       <c r="K111" s="52"/>
@@ -4504,7 +4495,7 @@
         <v>4</v>
       </c>
       <c r="I112" s="51" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J112" s="52"/>
       <c r="K112" s="52"/>
@@ -4523,7 +4514,7 @@
         <v>99</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C113" s="19"/>
       <c r="D113" s="19"/>
@@ -4540,7 +4531,7 @@
         <v>7</v>
       </c>
       <c r="I113" s="51" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J113" s="52"/>
       <c r="K113" s="52"/>
@@ -4559,7 +4550,7 @@
         <v>100</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C114" s="19"/>
       <c r="D114" s="19"/>
@@ -4576,7 +4567,7 @@
         <v>7</v>
       </c>
       <c r="I114" s="51" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J114" s="52"/>
       <c r="K114" s="52"/>
@@ -4595,7 +4586,7 @@
         <v>101</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C115" s="19"/>
       <c r="D115" s="19"/>
@@ -4612,7 +4603,7 @@
         <v>7</v>
       </c>
       <c r="I115" s="51" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J115" s="52"/>
       <c r="K115" s="52"/>
@@ -4628,13 +4619,13 @@
     </row>
     <row r="116" spans="1:20" ht="13">
       <c r="A116" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D116" s="16">
         <v>3</v>
@@ -4657,16 +4648,16 @@
     </row>
     <row r="117" spans="1:20" ht="13">
       <c r="A117" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C117" s="24" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E117" s="35">
         <v>1.3478289999999999</v>
@@ -4686,16 +4677,16 @@
     </row>
     <row r="118" spans="1:20" ht="13">
       <c r="A118" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C118" s="24" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D118" s="24" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E118" s="35">
         <v>0.31145200000000001</v>
@@ -4715,16 +4706,16 @@
     </row>
     <row r="119" spans="1:20" ht="13">
       <c r="A119" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C119" s="24" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D119" s="24" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E119" s="35">
         <v>0.22659000000000001</v>
@@ -4744,16 +4735,16 @@
     </row>
     <row r="120" spans="1:20" ht="13">
       <c r="A120" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C120" s="24" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D120" s="24" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E120" s="35">
         <v>0.26268999999999998</v>
@@ -4773,16 +4764,16 @@
     </row>
     <row r="121" spans="1:20" ht="13">
       <c r="A121" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C121" s="24" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D121" s="24" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E121" s="35">
         <v>0.212924</v>
@@ -4802,16 +4793,16 @@
     </row>
     <row r="122" spans="1:20" ht="13">
       <c r="A122" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C122" s="24" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D122" s="24" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E122" s="35">
         <v>0.159437</v>
@@ -4831,16 +4822,16 @@
     </row>
     <row r="123" spans="1:20" ht="13">
       <c r="A123" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C123" s="24" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D123" s="24" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E123" s="35">
         <v>0.124958</v>
@@ -4860,16 +4851,16 @@
     </row>
     <row r="124" spans="1:20" ht="13">
       <c r="A124" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C124" s="24" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D124" s="24" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E124" s="35">
         <v>9.0452000000000005E-2</v>
@@ -4889,16 +4880,16 @@
     </row>
     <row r="125" spans="1:20" ht="13">
       <c r="A125" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C125" s="24" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D125" s="24" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E125" s="35">
         <v>8.5330000000000003E-2</v>
@@ -4918,16 +4909,16 @@
     </row>
     <row r="126" spans="1:20" ht="13">
       <c r="A126" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C126" s="24" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D126" s="24" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E126" s="35">
         <v>4.6387999999999999E-2</v>
@@ -4947,16 +4938,16 @@
     </row>
     <row r="127" spans="1:20" ht="13">
       <c r="A127" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C127" s="24" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="D127" s="24" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E127" s="35">
         <v>1.2708000000000001E-2</v>
@@ -4976,16 +4967,16 @@
     </row>
     <row r="128" spans="1:20" ht="13">
       <c r="A128" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C128" s="24" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="D128" s="16" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E128" s="35">
         <v>9.5700000000000004E-3</v>
@@ -5237,16 +5228,16 @@
     </row>
     <row r="136" spans="1:20" ht="13">
       <c r="A136" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C136" s="24" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D136" s="24" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E136" s="35">
         <v>0.129888</v>
@@ -5266,16 +5257,16 @@
     </row>
     <row r="137" spans="1:20" ht="13">
       <c r="A137" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C137" s="24" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D137" s="24" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E137" s="35">
         <v>0.114135</v>
@@ -5295,16 +5286,16 @@
     </row>
     <row r="138" spans="1:20" ht="13">
       <c r="A138" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C138" s="24" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D138" s="16" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E138" s="35">
         <v>2.0903999999999999E-2</v>
@@ -5324,16 +5315,16 @@
     </row>
     <row r="139" spans="1:20" ht="13">
       <c r="A139" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C139" s="24" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D139" s="16" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E139" s="35">
         <v>7.9220000000000002E-3</v>
@@ -5353,16 +5344,16 @@
     </row>
     <row r="140" spans="1:20" ht="13">
       <c r="A140" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C140" s="24" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D140" s="16" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E140" s="35">
         <v>6.2769999999999996E-3</v>
@@ -5382,16 +5373,16 @@
     </row>
     <row r="141" spans="1:20" ht="13">
       <c r="A141" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C141" s="24" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D141" s="28" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E141" s="46">
         <v>2.0958000000000001E-2</v>
@@ -5420,16 +5411,16 @@
     </row>
     <row r="142" spans="1:20" ht="13">
       <c r="A142" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C142" s="24" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D142" s="28" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E142" s="46">
         <v>1.2517E-2</v>
@@ -5458,16 +5449,16 @@
     </row>
     <row r="143" spans="1:20" ht="14">
       <c r="A143" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C143" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="B143" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C143" s="29" t="s">
-        <v>186</v>
-      </c>
       <c r="D143" s="29" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E143" s="46">
         <v>1.962904</v>
@@ -5496,16 +5487,16 @@
     </row>
     <row r="144" spans="1:20" ht="14">
       <c r="A144" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C144" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="B144" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C144" s="29" t="s">
-        <v>186</v>
-      </c>
       <c r="D144" s="29" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E144" s="46">
         <v>2.9333999999999999E-2</v>
@@ -5534,16 +5525,16 @@
     </row>
     <row r="145" spans="1:20" ht="14">
       <c r="A145" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C145" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="B145" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C145" s="29" t="s">
-        <v>186</v>
-      </c>
       <c r="D145" s="28" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E145" s="46">
         <v>3.6919E-2</v>
@@ -5572,13 +5563,13 @@
     </row>
     <row r="146" spans="1:20" ht="13">
       <c r="A146" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C146" s="28" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D146" s="28">
         <v>2</v>
@@ -5610,13 +5601,13 @@
     </row>
     <row r="147" spans="1:20" ht="13">
       <c r="A147" s="31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C147" s="28" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D147" s="28">
         <v>2</v>
@@ -5648,7 +5639,7 @@
     </row>
     <row r="148" spans="1:20" ht="13">
       <c r="A148" s="45" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B148" s="11"/>
       <c r="C148" s="21"/>

--- a/data/processed/CN.xlsx
+++ b/data/processed/CN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/penninoa/Documents/VT/Data/MyData/Soil_Analyses/data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADA05C3-C22D-014B-B634-643D05957051}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCBCBFA-C869-7748-BCD1-8D97F7121192}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31700" yWindow="3760" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="195">
   <si>
     <t>CNRatio</t>
   </si>
@@ -538,9 +538,6 @@
     <t>D5</t>
   </si>
   <si>
-    <t>D11</t>
-  </si>
-  <si>
     <t>52_4_d2</t>
   </si>
   <si>
@@ -602,6 +599,12 @@
   </si>
   <si>
     <t>86_2_W2.2</t>
+  </si>
+  <si>
+    <t>BC3</t>
+  </si>
+  <si>
+    <t>D10</t>
   </si>
 </sst>
 </file>
@@ -1110,8 +1113,8 @@
   </sheetPr>
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E154" sqref="E154"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="K132" sqref="K132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1121,28 +1124,28 @@
   <sheetData>
     <row r="1" spans="1:20" s="50" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="49" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>183</v>
-      </c>
       <c r="E1" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I1" s="30"/>
       <c r="J1" s="30"/>
@@ -1406,7 +1409,7 @@
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
       <c r="A10" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>10</v>
@@ -1435,7 +1438,7 @@
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1">
       <c r="A11" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>11</v>
@@ -1464,7 +1467,7 @@
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1">
       <c r="A12" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>12</v>
@@ -1493,7 +1496,7 @@
     </row>
     <row r="13" spans="1:20" ht="15.75" customHeight="1">
       <c r="A13" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>13</v>
@@ -1522,7 +1525,7 @@
     </row>
     <row r="14" spans="1:20" ht="15.75" customHeight="1">
       <c r="A14" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>14</v>
@@ -1551,7 +1554,7 @@
     </row>
     <row r="15" spans="1:20" ht="15.75" customHeight="1">
       <c r="A15" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>15</v>
@@ -1580,7 +1583,7 @@
     </row>
     <row r="16" spans="1:20" ht="15.75" customHeight="1">
       <c r="A16" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>16</v>
@@ -1609,7 +1612,7 @@
     </row>
     <row r="17" spans="1:20" ht="15.75" customHeight="1">
       <c r="A17" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>17</v>
@@ -1638,7 +1641,7 @@
     </row>
     <row r="18" spans="1:20" ht="15.75" customHeight="1">
       <c r="A18" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>18</v>
@@ -1667,7 +1670,7 @@
     </row>
     <row r="19" spans="1:20" ht="15.75" customHeight="1">
       <c r="A19" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>19</v>
@@ -1696,7 +1699,7 @@
     </row>
     <row r="20" spans="1:20" ht="15.75" customHeight="1">
       <c r="A20" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>20</v>
@@ -1725,7 +1728,7 @@
     </row>
     <row r="21" spans="1:20" ht="15.75" customHeight="1">
       <c r="A21" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>21</v>
@@ -1754,7 +1757,7 @@
     </row>
     <row r="22" spans="1:20" ht="15.75" customHeight="1">
       <c r="A22" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>22</v>
@@ -1783,7 +1786,7 @@
     </row>
     <row r="23" spans="1:20" ht="15.75" customHeight="1">
       <c r="A23" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>23</v>
@@ -1812,7 +1815,7 @@
     </row>
     <row r="24" spans="1:20" ht="15.75" customHeight="1">
       <c r="A24" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>24</v>
@@ -1841,7 +1844,7 @@
     </row>
     <row r="25" spans="1:20" ht="15.75" customHeight="1">
       <c r="A25" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>25</v>
@@ -1870,7 +1873,7 @@
     </row>
     <row r="26" spans="1:20" ht="15.75" customHeight="1">
       <c r="A26" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>26</v>
@@ -1899,7 +1902,7 @@
     </row>
     <row r="27" spans="1:20" ht="15.75" customHeight="1">
       <c r="A27" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>27</v>
@@ -1928,7 +1931,7 @@
     </row>
     <row r="28" spans="1:20" ht="15.75" customHeight="1">
       <c r="A28" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>28</v>
@@ -1989,7 +1992,7 @@
     </row>
     <row r="30" spans="1:20" ht="15.75" customHeight="1">
       <c r="A30" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>29</v>
@@ -2018,7 +2021,7 @@
     </row>
     <row r="31" spans="1:20" ht="15.75" customHeight="1">
       <c r="A31" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>30</v>
@@ -2047,7 +2050,7 @@
     </row>
     <row r="32" spans="1:20" ht="15.75" customHeight="1">
       <c r="A32" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>31</v>
@@ -2076,7 +2079,7 @@
     </row>
     <row r="33" spans="1:20" ht="15.75" customHeight="1">
       <c r="A33" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>32</v>
@@ -2105,7 +2108,7 @@
     </row>
     <row r="34" spans="1:20" ht="15.75" customHeight="1">
       <c r="A34" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>33</v>
@@ -2134,7 +2137,7 @@
     </row>
     <row r="35" spans="1:20" ht="15.75" customHeight="1">
       <c r="A35" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>34</v>
@@ -2163,7 +2166,7 @@
     </row>
     <row r="36" spans="1:20" ht="15.75" customHeight="1">
       <c r="A36" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>35</v>
@@ -2192,7 +2195,7 @@
     </row>
     <row r="37" spans="1:20" ht="15.75" customHeight="1">
       <c r="A37" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>36</v>
@@ -2221,7 +2224,7 @@
     </row>
     <row r="38" spans="1:20" ht="15.75" customHeight="1">
       <c r="A38" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>37</v>
@@ -2250,7 +2253,7 @@
     </row>
     <row r="39" spans="1:20" ht="15.75" customHeight="1">
       <c r="A39" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>38</v>
@@ -2279,7 +2282,7 @@
     </row>
     <row r="40" spans="1:20" ht="15.75" customHeight="1">
       <c r="A40" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>39</v>
@@ -2308,7 +2311,7 @@
     </row>
     <row r="41" spans="1:20" ht="15.75" customHeight="1">
       <c r="A41" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>40</v>
@@ -2473,7 +2476,7 @@
     </row>
     <row r="46" spans="1:20" ht="15.75" customHeight="1">
       <c r="A46" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>45</v>
@@ -2502,7 +2505,7 @@
     </row>
     <row r="47" spans="1:20" ht="15.75" customHeight="1">
       <c r="A47" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>46</v>
@@ -2531,7 +2534,7 @@
     </row>
     <row r="48" spans="1:20" ht="13">
       <c r="A48" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>47</v>
@@ -2560,7 +2563,7 @@
     </row>
     <row r="49" spans="1:20" ht="13">
       <c r="A49" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>48</v>
@@ -2621,7 +2624,7 @@
     </row>
     <row r="51" spans="1:20" ht="13">
       <c r="A51" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>49</v>
@@ -2650,7 +2653,7 @@
     </row>
     <row r="52" spans="1:20" ht="13">
       <c r="A52" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>50</v>
@@ -2679,7 +2682,7 @@
     </row>
     <row r="53" spans="1:20" ht="13">
       <c r="A53" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>51</v>
@@ -2708,7 +2711,7 @@
     </row>
     <row r="54" spans="1:20" ht="13">
       <c r="A54" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>52</v>
@@ -2737,7 +2740,7 @@
     </row>
     <row r="55" spans="1:20" ht="13">
       <c r="A55" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>53</v>
@@ -2766,7 +2769,7 @@
     </row>
     <row r="56" spans="1:20" ht="13">
       <c r="A56" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>54</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="57" spans="1:20" ht="13">
       <c r="A57" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>55</v>
@@ -2824,7 +2827,7 @@
     </row>
     <row r="58" spans="1:20" ht="14">
       <c r="A58" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>56</v>
@@ -2853,7 +2856,7 @@
     </row>
     <row r="59" spans="1:20" ht="14">
       <c r="A59" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>57</v>
@@ -2882,7 +2885,7 @@
     </row>
     <row r="60" spans="1:20" ht="14">
       <c r="A60" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>58</v>
@@ -2911,7 +2914,7 @@
     </row>
     <row r="61" spans="1:20" ht="14">
       <c r="A61" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>59</v>
@@ -2940,7 +2943,7 @@
     </row>
     <row r="62" spans="1:20" ht="13">
       <c r="A62" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>60</v>
@@ -2978,7 +2981,7 @@
     </row>
     <row r="63" spans="1:20" ht="13">
       <c r="A63" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>61</v>
@@ -3007,7 +3010,7 @@
     </row>
     <row r="64" spans="1:20" ht="13">
       <c r="A64" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>62</v>
@@ -3045,7 +3048,7 @@
     </row>
     <row r="65" spans="1:20" ht="13">
       <c r="A65" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>63</v>
@@ -3074,7 +3077,7 @@
     </row>
     <row r="66" spans="1:20" ht="13">
       <c r="A66" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>64</v>
@@ -3103,13 +3106,13 @@
     </row>
     <row r="67" spans="1:20" ht="14">
       <c r="A67" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C67" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D67" s="16" t="s">
         <v>123</v>
@@ -3132,16 +3135,16 @@
     </row>
     <row r="68" spans="1:20" ht="14">
       <c r="A68" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E68" s="35">
         <v>0.512992</v>
@@ -3161,13 +3164,13 @@
     </row>
     <row r="69" spans="1:20" ht="14">
       <c r="A69" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D69" s="29" t="s">
         <v>125</v>
@@ -3190,13 +3193,13 @@
     </row>
     <row r="70" spans="1:20" ht="14">
       <c r="A70" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C70" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D70" s="16" t="s">
         <v>144</v>
@@ -3251,13 +3254,13 @@
     </row>
     <row r="72" spans="1:20" ht="14">
       <c r="A72" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C72" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D72" s="16" t="s">
         <v>145</v>
@@ -3280,13 +3283,13 @@
     </row>
     <row r="73" spans="1:20" ht="14">
       <c r="A73" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C73" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D73" s="16" t="s">
         <v>168</v>
@@ -3309,13 +3312,13 @@
     </row>
     <row r="74" spans="1:20" ht="14">
       <c r="A74" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C74" s="29" t="s">
         <v>191</v>
-      </c>
-      <c r="C74" s="29" t="s">
-        <v>192</v>
       </c>
       <c r="D74" s="16" t="s">
         <v>169</v>
@@ -3338,7 +3341,7 @@
     </row>
     <row r="75" spans="1:20" ht="13">
       <c r="A75" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>65</v>
@@ -3367,7 +3370,7 @@
     </row>
     <row r="76" spans="1:20" ht="13">
       <c r="A76" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>66</v>
@@ -3396,7 +3399,7 @@
     </row>
     <row r="77" spans="1:20" ht="13">
       <c r="A77" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>67</v>
@@ -3425,7 +3428,7 @@
     </row>
     <row r="78" spans="1:20" ht="13">
       <c r="A78" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>68</v>
@@ -3454,7 +3457,7 @@
     </row>
     <row r="79" spans="1:20" ht="13">
       <c r="A79" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>69</v>
@@ -3483,7 +3486,7 @@
     </row>
     <row r="80" spans="1:20" ht="13">
       <c r="A80" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>70</v>
@@ -3512,7 +3515,7 @@
     </row>
     <row r="81" spans="1:20" ht="13">
       <c r="A81" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>71</v>
@@ -3541,7 +3544,7 @@
     </row>
     <row r="82" spans="1:20" ht="13">
       <c r="A82" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>72</v>
@@ -3570,7 +3573,7 @@
     </row>
     <row r="83" spans="1:20" ht="13">
       <c r="A83" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>73</v>
@@ -3599,7 +3602,7 @@
     </row>
     <row r="84" spans="1:20" ht="13">
       <c r="A84" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>74</v>
@@ -3628,7 +3631,7 @@
     </row>
     <row r="85" spans="1:20" ht="13">
       <c r="A85" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>75</v>
@@ -3657,7 +3660,7 @@
     </row>
     <row r="86" spans="1:20" ht="13">
       <c r="A86" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>76</v>
@@ -3686,7 +3689,7 @@
     </row>
     <row r="87" spans="1:20" ht="13">
       <c r="A87" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>77</v>
@@ -3715,7 +3718,7 @@
     </row>
     <row r="88" spans="1:20" ht="13">
       <c r="A88" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>78</v>
@@ -3744,7 +3747,7 @@
     </row>
     <row r="89" spans="1:20" ht="13">
       <c r="A89" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>79</v>
@@ -3773,7 +3776,7 @@
     </row>
     <row r="90" spans="1:20" ht="13">
       <c r="A90" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>80</v>
@@ -3802,7 +3805,7 @@
     </row>
     <row r="91" spans="1:20" ht="13">
       <c r="A91" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>81</v>
@@ -3863,7 +3866,7 @@
     </row>
     <row r="93" spans="1:20" ht="13">
       <c r="A93" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>82</v>
@@ -3892,7 +3895,7 @@
     </row>
     <row r="94" spans="1:20" ht="13">
       <c r="A94" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>83</v>
@@ -3901,7 +3904,7 @@
         <v>162</v>
       </c>
       <c r="D94" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E94" s="35">
         <v>1.2055E-2</v>
@@ -3921,7 +3924,7 @@
     </row>
     <row r="95" spans="1:20" ht="13">
       <c r="A95" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>84</v>
@@ -3950,7 +3953,7 @@
     </row>
     <row r="96" spans="1:20" ht="13">
       <c r="A96" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>85</v>
@@ -3979,7 +3982,7 @@
     </row>
     <row r="97" spans="1:20" ht="13">
       <c r="A97" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>86</v>
@@ -4008,7 +4011,7 @@
     </row>
     <row r="98" spans="1:20" ht="13">
       <c r="A98" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>87</v>
@@ -4037,7 +4040,7 @@
     </row>
     <row r="99" spans="1:20" ht="13">
       <c r="A99" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>88</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="100" spans="1:20" ht="13">
       <c r="A100" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>89</v>
@@ -4095,7 +4098,7 @@
     </row>
     <row r="101" spans="1:20" ht="13">
       <c r="A101" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>90</v>
@@ -4124,7 +4127,7 @@
     </row>
     <row r="102" spans="1:20" ht="13">
       <c r="A102" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>91</v>
@@ -4619,13 +4622,13 @@
     </row>
     <row r="116" spans="1:20" ht="13">
       <c r="A116" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D116" s="16">
         <v>3</v>
@@ -4648,7 +4651,7 @@
     </row>
     <row r="117" spans="1:20" ht="13">
       <c r="A117" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>106</v>
@@ -4677,7 +4680,7 @@
     </row>
     <row r="118" spans="1:20" ht="13">
       <c r="A118" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>107</v>
@@ -4706,7 +4709,7 @@
     </row>
     <row r="119" spans="1:20" ht="13">
       <c r="A119" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>108</v>
@@ -4735,7 +4738,7 @@
     </row>
     <row r="120" spans="1:20" ht="13">
       <c r="A120" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>109</v>
@@ -4764,7 +4767,7 @@
     </row>
     <row r="121" spans="1:20" ht="13">
       <c r="A121" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>110</v>
@@ -4793,7 +4796,7 @@
     </row>
     <row r="122" spans="1:20" ht="13">
       <c r="A122" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>111</v>
@@ -4822,7 +4825,7 @@
     </row>
     <row r="123" spans="1:20" ht="13">
       <c r="A123" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>112</v>
@@ -4851,7 +4854,7 @@
     </row>
     <row r="124" spans="1:20" ht="13">
       <c r="A124" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>113</v>
@@ -4880,7 +4883,7 @@
     </row>
     <row r="125" spans="1:20" ht="13">
       <c r="A125" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>114</v>
@@ -4909,7 +4912,7 @@
     </row>
     <row r="126" spans="1:20" ht="13">
       <c r="A126" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>115</v>
@@ -4918,7 +4921,7 @@
         <v>167</v>
       </c>
       <c r="D126" s="24" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="E126" s="35">
         <v>4.6387999999999999E-2</v>
@@ -4938,7 +4941,7 @@
     </row>
     <row r="127" spans="1:20" ht="13">
       <c r="A127" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>116</v>
@@ -4947,7 +4950,7 @@
         <v>167</v>
       </c>
       <c r="D127" s="24" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="E127" s="35">
         <v>1.2708000000000001E-2</v>
@@ -4967,7 +4970,7 @@
     </row>
     <row r="128" spans="1:20" ht="13">
       <c r="A128" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>117</v>
@@ -4976,7 +4979,7 @@
         <v>167</v>
       </c>
       <c r="D128" s="16" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="E128" s="35">
         <v>9.5700000000000004E-3</v>
@@ -5228,7 +5231,7 @@
     </row>
     <row r="136" spans="1:20" ht="13">
       <c r="A136" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>92</v>
@@ -5257,7 +5260,7 @@
     </row>
     <row r="137" spans="1:20" ht="13">
       <c r="A137" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>94</v>
@@ -5286,7 +5289,7 @@
     </row>
     <row r="138" spans="1:20" ht="13">
       <c r="A138" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>95</v>
@@ -5315,7 +5318,7 @@
     </row>
     <row r="139" spans="1:20" ht="13">
       <c r="A139" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>96</v>
@@ -5344,7 +5347,7 @@
     </row>
     <row r="140" spans="1:20" ht="13">
       <c r="A140" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>97</v>
@@ -5373,7 +5376,7 @@
     </row>
     <row r="141" spans="1:20" ht="13">
       <c r="A141" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B141" s="10" t="s">
         <v>98</v>
@@ -5411,7 +5414,7 @@
     </row>
     <row r="142" spans="1:20" ht="13">
       <c r="A142" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B142" s="10" t="s">
         <v>99</v>
@@ -5449,13 +5452,13 @@
     </row>
     <row r="143" spans="1:20" ht="14">
       <c r="A143" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B143" s="10" t="s">
         <v>100</v>
       </c>
       <c r="C143" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D143" s="29" t="s">
         <v>123</v>
@@ -5487,13 +5490,13 @@
     </row>
     <row r="144" spans="1:20" ht="14">
       <c r="A144" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B144" s="10" t="s">
         <v>101</v>
       </c>
       <c r="C144" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D144" s="29" t="s">
         <v>121</v>
@@ -5525,13 +5528,13 @@
     </row>
     <row r="145" spans="1:20" ht="14">
       <c r="A145" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B145" s="10" t="s">
         <v>102</v>
       </c>
       <c r="C145" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D145" s="28" t="s">
         <v>122</v>
@@ -5563,13 +5566,13 @@
     </row>
     <row r="146" spans="1:20" ht="13">
       <c r="A146" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B146" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C146" s="28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D146" s="28">
         <v>2</v>
@@ -5601,13 +5604,13 @@
     </row>
     <row r="147" spans="1:20" ht="13">
       <c r="A147" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B147" s="10" t="s">
         <v>104</v>
       </c>
       <c r="C147" s="28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D147" s="28">
         <v>2</v>

--- a/data/processed/CN.xlsx
+++ b/data/processed/CN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nqpenelope/Documents/uvm/phd/research/data/lab/Exchangeable/VT/Soil_Analyses/data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E957F1-21DD-5D41-BD88-2CEE2750445B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0F7EFA-7ABD-614E-BBFC-7B791D5532C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="100" yWindow="500" windowWidth="23480" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1160,7 +1160,7 @@
   </sheetPr>
   <dimension ref="A1:T988"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
       <selection activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>

--- a/data/processed/CN.xlsx
+++ b/data/processed/CN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nqpenelope/Documents/uvm/phd/research/data/lab/Exchangeable/VT/Soil_Analyses/data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0F7EFA-7ABD-614E-BBFC-7B791D5532C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46A23E8-A423-7D49-9F4C-189FDA0B7320}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="500" windowWidth="23480" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="205">
   <si>
     <t>CNRatio</t>
   </si>
@@ -472,18 +472,6 @@
     <t>Bhs2.3</t>
   </si>
   <si>
-    <t>BC1</t>
-  </si>
-  <si>
-    <t>BC2</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
     <t>52_2_X2.1</t>
   </si>
   <si>
@@ -502,12 +490,6 @@
     <t>Bs1</t>
   </si>
   <si>
-    <t>Bs2</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
     <t>42_4_V4.1</t>
   </si>
   <si>
@@ -592,9 +574,6 @@
     <t>86_2_W2.2</t>
   </si>
   <si>
-    <t>Bs3</t>
-  </si>
-  <si>
     <t>W4.1_Bs3</t>
   </si>
   <si>
@@ -659,6 +638,15 @@
   </si>
   <si>
     <t>D.16</t>
+  </si>
+  <si>
+    <t>Bs.1</t>
+  </si>
+  <si>
+    <t>Bs.2</t>
+  </si>
+  <si>
+    <t>Bs.3</t>
   </si>
 </sst>
 </file>
@@ -666,8 +654,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0.000000"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -740,6 +728,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -931,10 +920,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1160,8 +1149,8 @@
   </sheetPr>
   <dimension ref="A1:T988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="D139" sqref="D139"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1171,28 +1160,28 @@
   <sheetData>
     <row r="1" spans="1:20" s="39" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="38" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="I1" s="24"/>
       <c r="J1" s="24"/>
@@ -1456,7 +1445,7 @@
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
       <c r="A10" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>10</v>
@@ -1485,7 +1474,7 @@
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1">
       <c r="A11" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>11</v>
@@ -1514,7 +1503,7 @@
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1">
       <c r="A12" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>12</v>
@@ -1543,7 +1532,7 @@
     </row>
     <row r="13" spans="1:20" ht="15.75" customHeight="1">
       <c r="A13" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>13</v>
@@ -1572,7 +1561,7 @@
     </row>
     <row r="14" spans="1:20" ht="15.75" customHeight="1">
       <c r="A14" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>14</v>
@@ -1601,7 +1590,7 @@
     </row>
     <row r="15" spans="1:20" ht="15.75" customHeight="1">
       <c r="A15" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>15</v>
@@ -1630,7 +1619,7 @@
     </row>
     <row r="16" spans="1:20" ht="15.75" customHeight="1">
       <c r="A16" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>16</v>
@@ -1659,7 +1648,7 @@
     </row>
     <row r="17" spans="1:20" ht="15.75" customHeight="1">
       <c r="A17" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>17</v>
@@ -1688,7 +1677,7 @@
     </row>
     <row r="18" spans="1:20" ht="15.75" customHeight="1">
       <c r="A18" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>18</v>
@@ -1717,7 +1706,7 @@
     </row>
     <row r="19" spans="1:20" ht="15.75" customHeight="1">
       <c r="A19" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>19</v>
@@ -1746,7 +1735,7 @@
     </row>
     <row r="20" spans="1:20" ht="15.75" customHeight="1">
       <c r="A20" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>20</v>
@@ -1775,7 +1764,7 @@
     </row>
     <row r="21" spans="1:20" ht="15.75" customHeight="1">
       <c r="A21" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>21</v>
@@ -1804,7 +1793,7 @@
     </row>
     <row r="22" spans="1:20" ht="15.75" customHeight="1">
       <c r="A22" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>22</v>
@@ -1833,7 +1822,7 @@
     </row>
     <row r="23" spans="1:20" ht="15.75" customHeight="1">
       <c r="A23" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>23</v>
@@ -1862,7 +1851,7 @@
     </row>
     <row r="24" spans="1:20" ht="15.75" customHeight="1">
       <c r="A24" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>24</v>
@@ -1891,7 +1880,7 @@
     </row>
     <row r="25" spans="1:20" ht="15.75" customHeight="1">
       <c r="A25" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>25</v>
@@ -1920,7 +1909,7 @@
     </row>
     <row r="26" spans="1:20" ht="15.75" customHeight="1">
       <c r="A26" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>26</v>
@@ -1949,7 +1938,7 @@
     </row>
     <row r="27" spans="1:20" ht="15.75" customHeight="1">
       <c r="A27" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>27</v>
@@ -1978,7 +1967,7 @@
     </row>
     <row r="28" spans="1:20" ht="15.75" customHeight="1">
       <c r="A28" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>28</v>
@@ -2039,7 +2028,7 @@
     </row>
     <row r="30" spans="1:20" ht="15.75" customHeight="1">
       <c r="A30" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>29</v>
@@ -2068,7 +2057,7 @@
     </row>
     <row r="31" spans="1:20" ht="15.75" customHeight="1">
       <c r="A31" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>30</v>
@@ -2097,7 +2086,7 @@
     </row>
     <row r="32" spans="1:20" ht="15.75" customHeight="1">
       <c r="A32" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>31</v>
@@ -2126,7 +2115,7 @@
     </row>
     <row r="33" spans="1:20" ht="15.75" customHeight="1">
       <c r="A33" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>32</v>
@@ -2155,7 +2144,7 @@
     </row>
     <row r="34" spans="1:20" ht="15.75" customHeight="1">
       <c r="A34" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>33</v>
@@ -2184,7 +2173,7 @@
     </row>
     <row r="35" spans="1:20" ht="15.75" customHeight="1">
       <c r="A35" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>34</v>
@@ -2213,7 +2202,7 @@
     </row>
     <row r="36" spans="1:20" ht="15.75" customHeight="1">
       <c r="A36" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>35</v>
@@ -2242,16 +2231,16 @@
     </row>
     <row r="37" spans="1:20" ht="15.75" customHeight="1">
       <c r="A37" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E37" s="29">
         <v>1.0003709999999999</v>
@@ -2271,7 +2260,7 @@
     </row>
     <row r="38" spans="1:20" ht="15.75" customHeight="1">
       <c r="A38" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>37</v>
@@ -2300,7 +2289,7 @@
     </row>
     <row r="39" spans="1:20" ht="15.75" customHeight="1">
       <c r="A39" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>38</v>
@@ -2329,7 +2318,7 @@
     </row>
     <row r="40" spans="1:20" ht="15.75" customHeight="1">
       <c r="A40" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>39</v>
@@ -2358,7 +2347,7 @@
     </row>
     <row r="41" spans="1:20" ht="15.75" customHeight="1">
       <c r="A41" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>40</v>
@@ -2523,7 +2512,7 @@
     </row>
     <row r="46" spans="1:20" ht="15.75" customHeight="1">
       <c r="A46" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>45</v>
@@ -2552,7 +2541,7 @@
     </row>
     <row r="47" spans="1:20" ht="15.75" customHeight="1">
       <c r="A47" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>46</v>
@@ -2581,7 +2570,7 @@
     </row>
     <row r="48" spans="1:20" ht="13">
       <c r="A48" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>47</v>
@@ -2610,7 +2599,7 @@
     </row>
     <row r="49" spans="1:20" ht="13">
       <c r="A49" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>48</v>
@@ -2671,7 +2660,7 @@
     </row>
     <row r="51" spans="1:20" ht="13">
       <c r="A51" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>49</v>
@@ -2700,7 +2689,7 @@
     </row>
     <row r="52" spans="1:20" ht="13">
       <c r="A52" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>50</v>
@@ -2729,7 +2718,7 @@
     </row>
     <row r="53" spans="1:20" ht="13">
       <c r="A53" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>51</v>
@@ -2738,7 +2727,7 @@
         <v>142</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E53" s="29">
         <v>0.10570499999999999</v>
@@ -2758,7 +2747,7 @@
     </row>
     <row r="54" spans="1:20" ht="13">
       <c r="A54" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>52</v>
@@ -2767,7 +2756,7 @@
         <v>142</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E54" s="29">
         <v>4.7220999999999999E-2</v>
@@ -2787,7 +2776,7 @@
     </row>
     <row r="55" spans="1:20" ht="13">
       <c r="A55" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>53</v>
@@ -2796,7 +2785,7 @@
         <v>142</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E55" s="29">
         <v>9.6839999999999999E-3</v>
@@ -2816,7 +2805,7 @@
     </row>
     <row r="56" spans="1:20" ht="13">
       <c r="A56" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>54</v>
@@ -2825,7 +2814,7 @@
         <v>142</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E56" s="29">
         <v>9.1739999999999999E-3</v>
@@ -2845,7 +2834,7 @@
     </row>
     <row r="57" spans="1:20" ht="13">
       <c r="A57" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>55</v>
@@ -2854,7 +2843,7 @@
         <v>142</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E57" s="29">
         <v>3.1909999999999998E-3</v>
@@ -2874,13 +2863,13 @@
     </row>
     <row r="58" spans="1:20" ht="14">
       <c r="A58" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>122</v>
@@ -2903,16 +2892,16 @@
     </row>
     <row r="59" spans="1:20" ht="14">
       <c r="A59" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E59" s="29">
         <v>9.6032000000000006E-2</v>
@@ -2932,16 +2921,16 @@
     </row>
     <row r="60" spans="1:20" ht="14">
       <c r="A60" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E60" s="29">
         <v>6.8475999999999995E-2</v>
@@ -2961,13 +2950,13 @@
     </row>
     <row r="61" spans="1:20" ht="14">
       <c r="A61" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D61" s="18" t="s">
         <v>121</v>
@@ -2990,13 +2979,13 @@
     </row>
     <row r="62" spans="1:20" s="45" customFormat="1" ht="13">
       <c r="A62" s="41" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B62" s="42" t="s">
         <v>60</v>
       </c>
       <c r="C62" s="43" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D62" s="43" t="s">
         <v>122</v>
@@ -3028,16 +3017,16 @@
     </row>
     <row r="63" spans="1:20" ht="13">
       <c r="A63" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E63" s="29">
         <v>7.7010999999999996E-2</v>
@@ -3057,16 +3046,16 @@
     </row>
     <row r="64" spans="1:20" s="45" customFormat="1" ht="13">
       <c r="A64" s="41" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B64" s="46" t="s">
         <v>62</v>
       </c>
       <c r="C64" s="43" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D64" s="43" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E64" s="44">
         <v>7.6608999999999997E-2</v>
@@ -3095,16 +3084,16 @@
     </row>
     <row r="65" spans="1:20" ht="13">
       <c r="A65" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E65" s="29">
         <v>4.6856000000000002E-2</v>
@@ -3124,16 +3113,16 @@
     </row>
     <row r="66" spans="1:20" ht="13">
       <c r="A66" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>64</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E66" s="29">
         <v>4.2376999999999998E-2</v>
@@ -3153,13 +3142,13 @@
     </row>
     <row r="67" spans="1:20" ht="14">
       <c r="A67" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>122</v>
@@ -3182,16 +3171,16 @@
     </row>
     <row r="68" spans="1:20" ht="14">
       <c r="A68" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C68" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="C68" s="23" t="s">
-        <v>184</v>
-      </c>
       <c r="D68" s="12" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E68" s="29">
         <v>0.512992</v>
@@ -3211,13 +3200,13 @@
     </row>
     <row r="69" spans="1:20" ht="14">
       <c r="A69" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D69" s="23" t="s">
         <v>124</v>
@@ -3240,13 +3229,13 @@
     </row>
     <row r="70" spans="1:20" ht="14">
       <c r="A70" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>180</v>
-      </c>
       <c r="C70" s="23" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>143</v>
@@ -3301,13 +3290,13 @@
     </row>
     <row r="72" spans="1:20" ht="14">
       <c r="A72" s="30" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D72" s="12" t="s">
         <v>144</v>
@@ -3330,16 +3319,16 @@
     </row>
     <row r="73" spans="1:20" ht="14">
       <c r="A73" s="30" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E73" s="29">
         <v>0.10406600000000001</v>
@@ -3359,16 +3348,16 @@
     </row>
     <row r="74" spans="1:20" ht="14">
       <c r="A74" s="30" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E74" s="29">
         <v>0.10985499999999999</v>
@@ -3388,13 +3377,13 @@
     </row>
     <row r="75" spans="1:20" ht="13">
       <c r="A75" s="30" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D75" s="18" t="s">
         <v>122</v>
@@ -3417,13 +3406,13 @@
     </row>
     <row r="76" spans="1:20" ht="13">
       <c r="A76" s="30" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D76" s="18" t="s">
         <v>129</v>
@@ -3446,13 +3435,13 @@
     </row>
     <row r="77" spans="1:20" ht="13">
       <c r="A77" s="30" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D77" s="18" t="s">
         <v>140</v>
@@ -3475,16 +3464,16 @@
     </row>
     <row r="78" spans="1:20" ht="13">
       <c r="A78" s="30" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>155</v>
+        <v>202</v>
       </c>
       <c r="E78" s="29">
         <v>0.118811</v>
@@ -3504,16 +3493,16 @@
     </row>
     <row r="79" spans="1:20" ht="13">
       <c r="A79" s="30" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="E79" s="29">
         <v>0.14069799999999999</v>
@@ -3533,16 +3522,16 @@
     </row>
     <row r="80" spans="1:20" s="40" customFormat="1" ht="13">
       <c r="A80" s="30" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="E80" s="47">
         <v>0.16146224240461984</v>
@@ -3563,16 +3552,16 @@
     </row>
     <row r="81" spans="1:20" ht="13">
       <c r="A81" s="30" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>70</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="E81" s="29">
         <v>0.16771900000000001</v>
@@ -3592,16 +3581,16 @@
     </row>
     <row r="82" spans="1:20" ht="13">
       <c r="A82" s="30" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="E82" s="29">
         <v>0.105418</v>
@@ -3621,16 +3610,16 @@
     </row>
     <row r="83" spans="1:20" ht="13">
       <c r="A83" s="30" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="E83" s="29">
         <v>4.981E-2</v>
@@ -3650,16 +3639,16 @@
     </row>
     <row r="84" spans="1:20" ht="13">
       <c r="A84" s="30" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="E84" s="29">
         <v>4.3857E-2</v>
@@ -3679,16 +3668,16 @@
     </row>
     <row r="85" spans="1:20" ht="13">
       <c r="A85" s="30" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="E85" s="29">
         <v>2.0705000000000001E-2</v>
@@ -3708,13 +3697,13 @@
     </row>
     <row r="86" spans="1:20" ht="13">
       <c r="A86" s="30" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D86" s="18" t="s">
         <v>122</v>
@@ -3737,13 +3726,13 @@
     </row>
     <row r="87" spans="1:20" ht="13">
       <c r="A87" s="30" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D87" s="18" t="s">
         <v>129</v>
@@ -3766,13 +3755,13 @@
     </row>
     <row r="88" spans="1:20" ht="13">
       <c r="A88" s="30" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>77</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D88" s="18" t="s">
         <v>124</v>
@@ -3795,13 +3784,13 @@
     </row>
     <row r="89" spans="1:20" ht="13">
       <c r="A89" s="30" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D89" s="18" t="s">
         <v>143</v>
@@ -3824,13 +3813,13 @@
     </row>
     <row r="90" spans="1:20" ht="13">
       <c r="A90" s="30" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D90" s="18" t="s">
         <v>144</v>
@@ -3853,16 +3842,16 @@
     </row>
     <row r="91" spans="1:20" ht="13">
       <c r="A91" s="30" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>80</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E91" s="29">
         <v>0.18893699999999999</v>
@@ -3882,16 +3871,16 @@
     </row>
     <row r="92" spans="1:20" ht="13">
       <c r="A92" s="30" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E92" s="29">
         <v>0.16860900000000001</v>
@@ -3943,13 +3932,13 @@
     </row>
     <row r="94" spans="1:20" ht="13">
       <c r="A94" s="30" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D94" s="18" t="s">
         <v>127</v>
@@ -3972,16 +3961,16 @@
     </row>
     <row r="95" spans="1:20" ht="13">
       <c r="A95" s="30" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E95" s="29">
         <v>1.2055E-2</v>
@@ -4001,16 +3990,16 @@
     </row>
     <row r="96" spans="1:20" ht="13">
       <c r="A96" s="30" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E96" s="29">
         <v>8.2380000000000005E-3</v>
@@ -4030,16 +4019,16 @@
     </row>
     <row r="97" spans="1:11" ht="13">
       <c r="A97" s="30" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>85</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E97" s="29">
         <v>7.9159999999999994E-3</v>
@@ -4059,13 +4048,13 @@
     </row>
     <row r="98" spans="1:11" ht="13">
       <c r="A98" s="30" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D98" s="18" t="s">
         <v>122</v>
@@ -4088,13 +4077,13 @@
     </row>
     <row r="99" spans="1:11" ht="13">
       <c r="A99" s="30" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D99" s="18" t="s">
         <v>129</v>
@@ -4117,13 +4106,13 @@
     </row>
     <row r="100" spans="1:11" ht="13">
       <c r="A100" s="30" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D100" s="18" t="s">
         <v>140</v>
@@ -4146,16 +4135,16 @@
     </row>
     <row r="101" spans="1:11" ht="13">
       <c r="A101" s="30" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>89</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E101" s="29">
         <v>0.187884</v>
@@ -4175,16 +4164,16 @@
     </row>
     <row r="102" spans="1:11" ht="13">
       <c r="A102" s="30" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>90</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E102" s="29">
         <v>0.228905</v>
@@ -4204,16 +4193,16 @@
     </row>
     <row r="103" spans="1:11" ht="13">
       <c r="A103" s="30" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>91</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E103" s="29">
         <v>0.203293</v>
@@ -4233,13 +4222,13 @@
     </row>
     <row r="104" spans="1:11" ht="13">
       <c r="A104" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>104</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D104" s="12">
         <v>3</v>
@@ -4262,13 +4251,13 @@
     </row>
     <row r="105" spans="1:11" ht="13">
       <c r="A105" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D105" s="12" t="s">
         <v>122</v>
@@ -4291,13 +4280,13 @@
     </row>
     <row r="106" spans="1:11" ht="13">
       <c r="A106" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>106</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D106" s="18" t="s">
         <v>124</v>
@@ -4320,13 +4309,13 @@
     </row>
     <row r="107" spans="1:11" ht="13">
       <c r="A107" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D107" s="18" t="s">
         <v>143</v>
@@ -4349,13 +4338,13 @@
     </row>
     <row r="108" spans="1:11" ht="13">
       <c r="A108" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D108" s="18" t="s">
         <v>144</v>
@@ -4378,16 +4367,16 @@
     </row>
     <row r="109" spans="1:11" ht="13">
       <c r="A109" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E109" s="29">
         <v>0.212924</v>
@@ -4407,16 +4396,16 @@
     </row>
     <row r="110" spans="1:11" ht="13">
       <c r="A110" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D110" s="18" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E110" s="29">
         <v>0.159437</v>
@@ -4436,16 +4425,16 @@
     </row>
     <row r="111" spans="1:11" ht="13">
       <c r="A111" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E111" s="29">
         <v>0.124958</v>
@@ -4465,16 +4454,16 @@
     </row>
     <row r="112" spans="1:11" ht="13">
       <c r="A112" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D112" s="18" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E112" s="29">
         <v>9.0452000000000005E-2</v>
@@ -4494,16 +4483,16 @@
     </row>
     <row r="113" spans="1:20" ht="13">
       <c r="A113" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>113</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D113" s="18" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E113" s="29">
         <v>8.5330000000000003E-2</v>
@@ -4523,16 +4512,16 @@
     </row>
     <row r="114" spans="1:20" ht="13">
       <c r="A114" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D114" s="18" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E114" s="29">
         <v>4.6387999999999999E-2</v>
@@ -4552,16 +4541,16 @@
     </row>
     <row r="115" spans="1:20" ht="13">
       <c r="A115" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D115" s="18" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E115" s="29">
         <v>1.2708000000000001E-2</v>
@@ -4581,16 +4570,16 @@
     </row>
     <row r="116" spans="1:20" ht="13">
       <c r="A116" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>116</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E116" s="29">
         <v>9.5700000000000004E-3</v>
@@ -4842,16 +4831,16 @@
     </row>
     <row r="124" spans="1:20" ht="13">
       <c r="A124" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E124" s="29">
         <v>0.129888</v>
@@ -4871,16 +4860,16 @@
     </row>
     <row r="125" spans="1:20" ht="13">
       <c r="A125" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D125" s="18" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E125" s="29">
         <v>0.114135</v>
@@ -4900,16 +4889,16 @@
     </row>
     <row r="126" spans="1:20" ht="13">
       <c r="A126" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>94</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E126" s="29">
         <v>2.0903999999999999E-2</v>
@@ -4929,16 +4918,16 @@
     </row>
     <row r="127" spans="1:20" ht="13">
       <c r="A127" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C127" s="18" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E127" s="29">
         <v>7.9220000000000002E-3</v>
@@ -4958,16 +4947,16 @@
     </row>
     <row r="128" spans="1:20" ht="13">
       <c r="A128" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C128" s="18" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E128" s="29">
         <v>6.2769999999999996E-3</v>
@@ -4987,16 +4976,16 @@
     </row>
     <row r="129" spans="1:20" ht="13">
       <c r="A129" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B129" s="49" t="s">
         <v>97</v>
       </c>
       <c r="C129" s="18" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D129" s="22" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E129" s="35">
         <v>2.0958000000000001E-2</v>
@@ -5025,16 +5014,16 @@
     </row>
     <row r="130" spans="1:20" ht="13">
       <c r="A130" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B130" s="49" t="s">
         <v>98</v>
       </c>
       <c r="C130" s="18" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D130" s="22" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E130" s="35">
         <v>1.2517E-2</v>
@@ -5063,13 +5052,13 @@
     </row>
     <row r="131" spans="1:20" ht="14">
       <c r="A131" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B131" s="49" t="s">
         <v>99</v>
       </c>
       <c r="C131" s="23" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D131" s="23" t="s">
         <v>122</v>
@@ -5101,16 +5090,16 @@
     </row>
     <row r="132" spans="1:20" ht="14">
       <c r="A132" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B132" s="49" t="s">
         <v>100</v>
       </c>
       <c r="C132" s="23" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D132" s="23" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E132" s="35">
         <v>2.9333999999999999E-2</v>
@@ -5139,16 +5128,16 @@
     </row>
     <row r="133" spans="1:20" ht="14">
       <c r="A133" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B133" s="49" t="s">
         <v>101</v>
       </c>
       <c r="C133" s="23" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D133" s="22" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E133" s="35">
         <v>3.6919E-2</v>
@@ -5177,13 +5166,13 @@
     </row>
     <row r="134" spans="1:20" ht="13">
       <c r="A134" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B134" s="49" t="s">
         <v>102</v>
       </c>
       <c r="C134" s="22" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D134" s="22">
         <v>2</v>
@@ -5215,13 +5204,13 @@
     </row>
     <row r="135" spans="1:20" ht="13">
       <c r="A135" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B135" s="49" t="s">
         <v>103</v>
       </c>
       <c r="C135" s="22" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D135" s="22">
         <v>2</v>
@@ -12187,12 +12176,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
